--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457386.6790821655</v>
+        <v>454719.5555728367</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3039758.61690256</v>
+        <v>3039758.616902559</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T2" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="X2" t="n">
-        <v>22.56635248423084</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,64 +747,64 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.56635248423084</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="Y3" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>25.62029119463083</v>
@@ -865,10 +865,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S4" t="n">
-        <v>25.62029119463083</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="T4" t="n">
-        <v>22.56635248423084</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,61 +896,61 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>22.56635248423083</v>
       </c>
       <c r="X5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,38 +990,38 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.8449117491243</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C8" t="n">
         <v>25.62029119463083</v>
@@ -1139,7 +1139,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="E8" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,76 +1209,76 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C9" t="n">
+      <c r="W9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="X9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="Y9" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="D9" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2968606583479769</v>
+        <v>0.2968606583479628</v>
       </c>
       <c r="H10" t="n">
         <v>25.62029119463083</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>45.41043641870571</v>
       </c>
       <c r="V11" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="W11" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="X11" t="n">
-        <v>51.5558996579311</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>45.4104364187057</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="S12" t="n">
-        <v>45.41043641870569</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>51.5558996579311</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>51.5558996579311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>37.72150377655387</v>
+        <v>45.41043641870571</v>
       </c>
       <c r="H13" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="I13" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="J13" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="K13" t="n">
-        <v>7.688932642151832</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1692,52 +1692,52 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>51.5558996579311</v>
       </c>
       <c r="F15" t="n">
-        <v>45.41043641870571</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>51.5558996579311</v>
       </c>
-      <c r="H15" t="n">
+      <c r="S15" t="n">
         <v>51.5558996579311</v>
       </c>
-      <c r="I15" t="n">
-        <v>51.5558996579311</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>45.41043641870569</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1774,22 +1774,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>51.5558996579311</v>
       </c>
       <c r="G16" t="n">
-        <v>37.72150377655387</v>
+        <v>51.5558996579311</v>
       </c>
       <c r="H16" t="n">
         <v>51.5558996579311</v>
       </c>
       <c r="I16" t="n">
-        <v>51.5558996579311</v>
+        <v>45.41043641870569</v>
       </c>
       <c r="J16" t="n">
-        <v>51.5558996579311</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.688932642151832</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>52.19288119340931</v>
       </c>
       <c r="G17" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="H17" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="I17" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>59.25622297162729</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>59.25622297162729</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>59.25622297162729</v>
+        <v>52.19288119340929</v>
       </c>
       <c r="H18" t="n">
-        <v>52.19288119340932</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.25622297162729</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>59.25622297162729</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>37.40364023712443</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="V19" t="n">
-        <v>59.25622297162729</v>
+        <v>37.40364023712441</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>316.318924196268</v>
-      </c>
-      <c r="C20" t="n">
-        <v>316.318924196268</v>
-      </c>
-      <c r="D20" t="n">
-        <v>38.12216742728931</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>221.871131209468</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3232708476713</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>103.117820775886</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>52.55937131087574</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>84.24272139990653</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>90.86372325996096</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9026851169412</v>
+        <v>111.809031711603</v>
       </c>
       <c r="T21" t="n">
         <v>199.5613599529189</v>
@@ -2220,10 +2220,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.8654815877068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>51.30615599654738</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>219.1716375842541</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>316.318924196268</v>
+        <v>316.3189241962679</v>
       </c>
       <c r="C23" t="n">
-        <v>316.318924196268</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>316.318924196268</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>192.5981181033401</v>
       </c>
       <c r="H23" t="n">
-        <v>278.6137084320726</v>
+        <v>316.3189241962679</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>199.6898348889302</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>202.6446796360702</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1938239388866</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>84.24272139990653</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>90.86372325996096</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9026851169412</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>51.60398328761952</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9315338425324</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>149.332196518394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.1716375842541</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>219.1716375842541</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>259.9932986367572</v>
+      </c>
+      <c r="G26" t="n">
         <v>316.318924196268</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56.7425772226047</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>132.2946543555133</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>202.6446796360702</v>
       </c>
       <c r="T26" t="n">
-        <v>221.871131209468</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>316.318924196268</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>316.318924196268</v>
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>80.91868864738106</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1938239388866</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>88.07404636030491</v>
+        <v>110.7897228331561</v>
       </c>
       <c r="I27" t="n">
         <v>84.24272139990653</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>90.86372325996095</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>168.9026851169412</v>
       </c>
       <c r="T27" t="n">
-        <v>199.5613599529189</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9315338425324</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>70.55616456604184</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>161.1113832365719</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>58.06025434768224</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>316.318924196268</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>60.30346374782695</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>199.6898348889302</v>
+        <v>103.117820775886</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>202.6446796360702</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.871131209468</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3232708476713</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>316.318924196268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,22 +2874,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.1938239388866</v>
       </c>
       <c r="H30" t="n">
-        <v>110.7897228331561</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>57.82435985223839</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>90.86372325996095</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>172.716331046675</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>72.73767493768506</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>219.1716375842542</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>316.318924196268</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>316.318924196268</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>278.6137084320726</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>316.318924196268</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>316.318924196268</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>111.9904657362844</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>110.7897228331561</v>
+        <v>109.1763492433525</v>
       </c>
       <c r="I33" t="n">
         <v>84.24272139990653</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>90.86372325996095</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9315338425324</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>219.1716375842541</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>219.1716375842542</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,67 +3272,67 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>160.6971742703238</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>202.6446796360702</v>
+      </c>
+      <c r="T35" t="n">
+        <v>221.871131209468</v>
+      </c>
+      <c r="U35" t="n">
+        <v>251.3232708476713</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>290.3833157329677</v>
       </c>
-      <c r="F35" t="n">
-        <v>255.769624497598</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>290.3833157329677</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>290.3833157329677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1938239388866</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.7897228331561</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>84.24272139990653</v>
@@ -3393,25 +3393,25 @@
         <v>90.86372325996095</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9026851169412</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.5613599529189</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>129.5925499912534</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>122.1292792450646</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5869842321594042</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.65331628445287</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>143.5183212998013</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>290.3833157329677</v>
       </c>
       <c r="E38" t="n">
-        <v>53.12494486152781</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>290.3833157329677</v>
@@ -3518,7 +3518,7 @@
         <v>290.3833157329677</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>255.7696244975978</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>202.6446796360702</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>11.24841181340031</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>94.2637958111506</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.7897228331561</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>84.24272139990653</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.5613599529189</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9315338425324</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>72.73767493768506</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>51.92481648562654</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>282.6829924192715</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.47577008502634</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.871131209468</v>
       </c>
       <c r="U41" t="n">
-        <v>248.9871797228941</v>
+        <v>251.3232708476713</v>
       </c>
       <c r="V41" t="n">
         <v>282.6829924192715</v>
@@ -3819,25 +3819,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>22.96593597919399</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>26.42815744501815</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.1938239388866</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.7897228331561</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>84.24272139990653</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>219.1716375842542</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,70 +3977,70 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>22.5663524842308</v>
+      </c>
+      <c r="V44" t="n">
         <v>25.62029119463079</v>
       </c>
-      <c r="D44" t="n">
+      <c r="W44" t="n">
         <v>25.62029119463079</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>22.5663524842308</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="X44" t="n">
         <v>25.62029119463079</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>25.62029119463079</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>25.62029119463079</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>22.56635248423079</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>25.62029119463079</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>25.62029119463079</v>
+        <v>22.56635248423079</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>25.62029119463079</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>22.56635248423079</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>22.5663524842308</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.049623295570467</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C2" t="n">
-        <v>2.049623295570467</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D2" t="n">
-        <v>2.049623295570467</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E2" t="n">
-        <v>2.049623295570467</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F2" t="n">
-        <v>2.049623295570467</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G2" t="n">
-        <v>2.049623295570467</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.049623295570467</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I2" t="n">
-        <v>2.049623295570467</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J2" t="n">
-        <v>2.049623295570467</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>2.049623295570467</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L2" t="n">
-        <v>2.049623295570467</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M2" t="n">
-        <v>26.38889993046975</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N2" t="n">
-        <v>51.75298821315427</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O2" t="n">
         <v>77.1170764958388</v>
@@ -4355,25 +4355,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S2" t="n">
-        <v>76.60208276374472</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T2" t="n">
-        <v>50.7230007489661</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U2" t="n">
-        <v>50.7230007489661</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V2" t="n">
-        <v>50.7230007489661</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W2" t="n">
-        <v>24.84391873418748</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X2" t="n">
-        <v>2.049623295570467</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.049623295570467</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.60208276374472</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C3" t="n">
-        <v>76.60208276374472</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D3" t="n">
-        <v>76.60208276374472</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E3" t="n">
-        <v>76.60208276374472</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F3" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G3" t="n">
-        <v>27.92870531034909</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H3" t="n">
-        <v>27.92870531034909</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I3" t="n">
-        <v>2.049623295570467</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J3" t="n">
-        <v>2.049623295570467</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L3" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M3" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N3" t="n">
-        <v>51.75298821315427</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O3" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P3" t="n">
         <v>77.1170764958388</v>
@@ -4437,22 +4437,22 @@
         <v>102.4811647785233</v>
       </c>
       <c r="T3" t="n">
-        <v>76.60208276374472</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U3" t="n">
-        <v>76.60208276374472</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V3" t="n">
-        <v>76.60208276374472</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W3" t="n">
-        <v>76.60208276374472</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X3" t="n">
-        <v>76.60208276374472</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y3" t="n">
-        <v>76.60208276374472</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="C4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="D4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="E4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="F4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K4" t="n">
-        <v>2.049623295570467</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
         <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>52.77779986093952</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
         <v>78.14188814362404</v>
@@ -4504,34 +4504,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.60208276374472</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R4" t="n">
-        <v>50.7230007489661</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S4" t="n">
-        <v>24.84391873418748</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="T4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="U4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="V4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="W4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="X4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C5" t="n">
         <v>2.049623295570466</v>
@@ -4568,16 +4568,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L5" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M5" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N5" t="n">
-        <v>78.14188814362403</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O5" t="n">
         <v>102.4811647785233</v>
@@ -4589,28 +4589,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R5" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S5" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U5" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V5" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W5" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X5" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="6">
@@ -4623,25 +4623,25 @@
         <v>50.72300074896609</v>
       </c>
       <c r="C6" t="n">
-        <v>50.72300074896609</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D6" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E6" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F6" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G6" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H6" t="n">
-        <v>28.6828379631348</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I6" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J6" t="n">
         <v>2.049623295570466</v>
@@ -4650,13 +4650,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L6" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M6" t="n">
-        <v>26.38889993046976</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N6" t="n">
-        <v>26.38889993046976</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O6" t="n">
         <v>51.75298821315428</v>
@@ -4668,13 +4668,13 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T6" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U6" t="n">
         <v>76.6020827637447</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H7" t="n">
-        <v>2.049623295570466</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I7" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K7" t="n">
         <v>2.049623295570466</v>
@@ -4735,40 +4735,40 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O7" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>99.73223474306218</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.85315272828356</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R7" t="n">
-        <v>47.97407071350494</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S7" t="n">
-        <v>22.09498869872633</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.6020827637447</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C8" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D8" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
         <v>2.049623295570466</v>
@@ -4844,7 +4844,7 @@
         <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y8" t="n">
         <v>76.6020827637447</v>
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C9" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D9" t="n">
         <v>2.049623295570466</v>
@@ -4890,13 +4890,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="M9" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
         <v>51.75298821315428</v>
       </c>
       <c r="O9" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P9" t="n">
         <v>77.1170764958388</v>
@@ -4917,16 +4917,16 @@
         <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W9" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X9" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y9" t="n">
-        <v>76.6020827637447</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="10">
@@ -4972,7 +4972,7 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O10" t="n">
         <v>102.4811647785233</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.124471972634488</v>
+        <v>56.20113829377702</v>
       </c>
       <c r="C11" t="n">
         <v>4.124471972634488</v>
@@ -5039,16 +5039,16 @@
         <v>4.124471972634488</v>
       </c>
       <c r="J11" t="n">
-        <v>15.80283657600432</v>
+        <v>15.80283657600431</v>
       </c>
       <c r="K11" t="n">
         <v>66.84317723735612</v>
       </c>
       <c r="L11" t="n">
-        <v>66.84317723735612</v>
+        <v>117.8835178987079</v>
       </c>
       <c r="M11" t="n">
-        <v>117.8835178987079</v>
+        <v>135.1635427844492</v>
       </c>
       <c r="N11" t="n">
         <v>135.1635427844492</v>
@@ -5078,13 +5078,13 @@
         <v>108.2778046149195</v>
       </c>
       <c r="W11" t="n">
-        <v>56.20113829377701</v>
+        <v>56.20113829377702</v>
       </c>
       <c r="X11" t="n">
-        <v>4.124471972634488</v>
+        <v>56.20113829377702</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.124471972634488</v>
+        <v>56.20113829377702</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.124471972634488</v>
+        <v>154.1469323105819</v>
       </c>
       <c r="C12" t="n">
-        <v>4.124471972634488</v>
+        <v>102.0702659894393</v>
       </c>
       <c r="D12" t="n">
-        <v>4.124471972634488</v>
+        <v>102.0702659894393</v>
       </c>
       <c r="E12" t="n">
-        <v>4.124471972634488</v>
+        <v>102.0702659894393</v>
       </c>
       <c r="F12" t="n">
-        <v>4.124471972634488</v>
+        <v>102.0702659894393</v>
       </c>
       <c r="G12" t="n">
-        <v>4.124471972634488</v>
+        <v>102.0702659894393</v>
       </c>
       <c r="H12" t="n">
-        <v>4.124471972634488</v>
+        <v>56.20113829377702</v>
       </c>
       <c r="I12" t="n">
         <v>4.124471972634488</v>
@@ -5121,19 +5121,19 @@
         <v>17.3866462425916</v>
       </c>
       <c r="K12" t="n">
-        <v>68.42698690394339</v>
+        <v>53.10257664766905</v>
       </c>
       <c r="L12" t="n">
-        <v>119.4673275652952</v>
+        <v>53.10257664766905</v>
       </c>
       <c r="M12" t="n">
-        <v>155.1832579703726</v>
+        <v>104.1429173090208</v>
       </c>
       <c r="N12" t="n">
-        <v>155.1832579703726</v>
+        <v>104.1429173090208</v>
       </c>
       <c r="O12" t="n">
-        <v>155.1832579703726</v>
+        <v>104.1429173090208</v>
       </c>
       <c r="P12" t="n">
         <v>155.1832579703726</v>
@@ -5145,25 +5145,25 @@
         <v>154.1469323105819</v>
       </c>
       <c r="S12" t="n">
-        <v>108.2778046149195</v>
+        <v>154.1469323105819</v>
       </c>
       <c r="T12" t="n">
-        <v>108.2778046149195</v>
+        <v>154.1469323105819</v>
       </c>
       <c r="U12" t="n">
-        <v>108.2778046149195</v>
+        <v>154.1469323105819</v>
       </c>
       <c r="V12" t="n">
-        <v>108.2778046149195</v>
+        <v>154.1469323105819</v>
       </c>
       <c r="W12" t="n">
-        <v>108.2778046149195</v>
+        <v>154.1469323105819</v>
       </c>
       <c r="X12" t="n">
-        <v>56.20113829377701</v>
+        <v>154.1469323105819</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.124471972634488</v>
+        <v>154.1469323105819</v>
       </c>
     </row>
     <row r="13">
@@ -5188,16 +5188,16 @@
         <v>206.2235986317244</v>
       </c>
       <c r="G13" t="n">
-        <v>168.1210695644983</v>
+        <v>160.3544709360621</v>
       </c>
       <c r="H13" t="n">
-        <v>116.0444032433557</v>
+        <v>108.2778046149195</v>
       </c>
       <c r="I13" t="n">
-        <v>63.96773692221321</v>
+        <v>56.20113829377702</v>
       </c>
       <c r="J13" t="n">
-        <v>11.89107060107068</v>
+        <v>4.124471972634488</v>
       </c>
       <c r="K13" t="n">
         <v>4.124471972634488</v>
@@ -5209,7 +5209,7 @@
         <v>100.9504525276014</v>
       </c>
       <c r="N13" t="n">
-        <v>151.9907931889532</v>
+        <v>151.9907931889533</v>
       </c>
       <c r="O13" t="n">
         <v>193.8912238807198</v>
@@ -5276,19 +5276,19 @@
         <v>4.124471972634488</v>
       </c>
       <c r="J14" t="n">
-        <v>15.80283657600432</v>
+        <v>15.80283657600431</v>
       </c>
       <c r="K14" t="n">
-        <v>66.84317723735612</v>
+        <v>15.80283657600431</v>
       </c>
       <c r="L14" t="n">
+        <v>15.80283657600431</v>
+      </c>
+      <c r="M14" t="n">
+        <v>66.8431772373561</v>
+      </c>
+      <c r="N14" t="n">
         <v>117.8835178987079</v>
-      </c>
-      <c r="M14" t="n">
-        <v>135.1635427844492</v>
-      </c>
-      <c r="N14" t="n">
-        <v>135.1635427844492</v>
       </c>
       <c r="O14" t="n">
         <v>135.1635427844492</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>206.2235986317244</v>
+        <v>56.20113829377701</v>
       </c>
       <c r="C15" t="n">
-        <v>206.2235986317244</v>
+        <v>56.20113829377701</v>
       </c>
       <c r="D15" t="n">
-        <v>206.2235986317244</v>
+        <v>56.20113829377701</v>
       </c>
       <c r="E15" t="n">
-        <v>206.2235986317244</v>
+        <v>4.124471972634488</v>
       </c>
       <c r="F15" t="n">
-        <v>160.3544709360621</v>
+        <v>4.124471972634488</v>
       </c>
       <c r="G15" t="n">
-        <v>108.2778046149195</v>
+        <v>4.124471972634488</v>
       </c>
       <c r="H15" t="n">
-        <v>56.20113829377701</v>
+        <v>4.124471972634488</v>
       </c>
       <c r="I15" t="n">
         <v>4.124471972634488</v>
@@ -5358,49 +5358,49 @@
         <v>17.3866462425916</v>
       </c>
       <c r="K15" t="n">
+        <v>17.3866462425916</v>
+      </c>
+      <c r="L15" t="n">
         <v>68.42698690394339</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>119.4673275652952</v>
       </c>
-      <c r="M15" t="n">
-        <v>155.1832579703726</v>
-      </c>
       <c r="N15" t="n">
-        <v>155.1832579703726</v>
+        <v>170.507668226647</v>
       </c>
       <c r="O15" t="n">
-        <v>155.1832579703726</v>
+        <v>206.2235986317244</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1832579703726</v>
+        <v>206.2235986317244</v>
       </c>
       <c r="Q15" t="n">
         <v>206.2235986317244</v>
       </c>
       <c r="R15" t="n">
-        <v>206.2235986317244</v>
+        <v>154.1469323105819</v>
       </c>
       <c r="S15" t="n">
-        <v>206.2235986317244</v>
+        <v>102.0702659894393</v>
       </c>
       <c r="T15" t="n">
-        <v>206.2235986317244</v>
+        <v>56.20113829377701</v>
       </c>
       <c r="U15" t="n">
-        <v>206.2235986317244</v>
+        <v>56.20113829377701</v>
       </c>
       <c r="V15" t="n">
-        <v>206.2235986317244</v>
+        <v>56.20113829377701</v>
       </c>
       <c r="W15" t="n">
-        <v>206.2235986317244</v>
+        <v>56.20113829377701</v>
       </c>
       <c r="X15" t="n">
-        <v>206.2235986317244</v>
+        <v>56.20113829377701</v>
       </c>
       <c r="Y15" t="n">
-        <v>206.2235986317244</v>
+        <v>56.20113829377701</v>
       </c>
     </row>
     <row r="16">
@@ -5422,19 +5422,19 @@
         <v>206.2235986317244</v>
       </c>
       <c r="F16" t="n">
-        <v>206.2235986317244</v>
+        <v>154.1469323105819</v>
       </c>
       <c r="G16" t="n">
-        <v>168.1210695644983</v>
+        <v>102.0702659894393</v>
       </c>
       <c r="H16" t="n">
-        <v>116.0444032433557</v>
+        <v>49.99359966829681</v>
       </c>
       <c r="I16" t="n">
-        <v>63.96773692221321</v>
+        <v>4.124471972634488</v>
       </c>
       <c r="J16" t="n">
-        <v>11.89107060107068</v>
+        <v>4.124471972634488</v>
       </c>
       <c r="K16" t="n">
         <v>4.124471972634488</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="C17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="D17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="E17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="F17" t="n">
         <v>184.3048098729644</v>
@@ -5513,13 +5513,13 @@
         <v>4.740497837730183</v>
       </c>
       <c r="J17" t="n">
-        <v>16.41886244110001</v>
+        <v>16.4188624411</v>
       </c>
       <c r="K17" t="n">
-        <v>75.08252318301103</v>
+        <v>41.01419447485269</v>
       </c>
       <c r="L17" t="n">
-        <v>133.746183924922</v>
+        <v>99.6778552167637</v>
       </c>
       <c r="M17" t="n">
         <v>158.3415159586747</v>
@@ -5534,31 +5534,31 @@
         <v>217.0051767005857</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="R17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="S17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="T17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="U17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="V17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="W17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="X17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="C18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="D18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="E18" t="n">
-        <v>177.1701212080978</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="F18" t="n">
-        <v>117.3153505296864</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="G18" t="n">
-        <v>57.46057985127495</v>
+        <v>124.450039194553</v>
       </c>
       <c r="H18" t="n">
-        <v>4.740497837730183</v>
+        <v>64.59526851614159</v>
       </c>
       <c r="I18" t="n">
         <v>4.740497837730183</v>
@@ -5595,49 +5595,49 @@
         <v>18.00267210768729</v>
       </c>
       <c r="K18" t="n">
-        <v>76.66633284959831</v>
+        <v>76.66633284959829</v>
       </c>
       <c r="L18" t="n">
+        <v>76.66633284959829</v>
+      </c>
+      <c r="M18" t="n">
         <v>135.3299935915093</v>
       </c>
-      <c r="M18" t="n">
-        <v>193.9936543334204</v>
-      </c>
       <c r="N18" t="n">
-        <v>237.0248918865092</v>
+        <v>135.3299935915093</v>
       </c>
       <c r="O18" t="n">
-        <v>237.0248918865092</v>
+        <v>178.3612311445981</v>
       </c>
       <c r="P18" t="n">
-        <v>237.0248918865092</v>
+        <v>178.3612311445981</v>
       </c>
       <c r="Q18" t="n">
-        <v>237.0248918865092</v>
+        <v>237.0248918865091</v>
       </c>
       <c r="R18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="S18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="T18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="U18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="V18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="W18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="X18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
       <c r="Y18" t="n">
-        <v>237.0248918865092</v>
+        <v>177.1701212080977</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.3767233011158</v>
+        <v>4.740497837730183</v>
       </c>
       <c r="C19" t="n">
-        <v>42.52195262270435</v>
+        <v>4.740497837730183</v>
       </c>
       <c r="D19" t="n">
-        <v>42.52195262270435</v>
+        <v>4.740497837730183</v>
       </c>
       <c r="E19" t="n">
         <v>4.740497837730183</v>
@@ -5680,7 +5680,7 @@
         <v>50.52613773134534</v>
       </c>
       <c r="M19" t="n">
-        <v>109.1897984732564</v>
+        <v>109.1897984732563</v>
       </c>
       <c r="N19" t="n">
         <v>167.8534592151674</v>
@@ -5689,34 +5689,34 @@
         <v>209.7538899069339</v>
       </c>
       <c r="P19" t="n">
-        <v>222.0862646579386</v>
+        <v>222.0862646579385</v>
       </c>
       <c r="Q19" t="n">
-        <v>222.0862646579386</v>
+        <v>222.0862646579385</v>
       </c>
       <c r="R19" t="n">
-        <v>222.0862646579386</v>
+        <v>222.0862646579385</v>
       </c>
       <c r="S19" t="n">
-        <v>222.0862646579386</v>
+        <v>162.2314939795271</v>
       </c>
       <c r="T19" t="n">
-        <v>222.0862646579386</v>
+        <v>102.3767233011157</v>
       </c>
       <c r="U19" t="n">
-        <v>222.0862646579386</v>
+        <v>42.52195262270433</v>
       </c>
       <c r="V19" t="n">
-        <v>162.2314939795272</v>
+        <v>4.740497837730183</v>
       </c>
       <c r="W19" t="n">
-        <v>162.2314939795272</v>
+        <v>4.740497837730183</v>
       </c>
       <c r="X19" t="n">
-        <v>162.2314939795272</v>
+        <v>4.740497837730183</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.2314939795272</v>
+        <v>4.740497837730183</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.3268186059614</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="C20" t="n">
-        <v>63.8127537612462</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="D20" t="n">
-        <v>25.30551393570144</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="E20" t="n">
-        <v>25.30551393570144</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="F20" t="n">
-        <v>25.30551393570144</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="G20" t="n">
-        <v>25.30551393570144</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="H20" t="n">
         <v>25.30551393570144</v>
@@ -5750,13 +5750,13 @@
         <v>25.30551393570144</v>
       </c>
       <c r="J20" t="n">
-        <v>36.98387853907127</v>
+        <v>36.98387853907116</v>
       </c>
       <c r="K20" t="n">
         <v>175.2315240234811</v>
       </c>
       <c r="L20" t="n">
-        <v>399.0165804821556</v>
+        <v>399.0165804821557</v>
       </c>
       <c r="M20" t="n">
         <v>664.6271200295494</v>
@@ -5783,19 +5783,19 @@
         <v>702.8408834506765</v>
       </c>
       <c r="U20" t="n">
-        <v>702.8408834506765</v>
+        <v>448.978993705554</v>
       </c>
       <c r="V20" t="n">
-        <v>702.8408834506765</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="W20" t="n">
-        <v>702.8408834506765</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="X20" t="n">
-        <v>702.8408834506765</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="Y20" t="n">
-        <v>702.8408834506765</v>
+        <v>344.8195787804166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>337.9424752479217</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="C21" t="n">
-        <v>163.4894459667946</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="D21" t="n">
-        <v>163.4894459667946</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="E21" t="n">
-        <v>163.4894459667946</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="F21" t="n">
-        <v>163.4894459667946</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="G21" t="n">
-        <v>163.4894459667946</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="H21" t="n">
-        <v>110.399171915405</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="I21" t="n">
         <v>25.30551393570144</v>
       </c>
       <c r="J21" t="n">
-        <v>25.30551393570144</v>
+        <v>38.56768820565854</v>
       </c>
       <c r="K21" t="n">
-        <v>174.5935252459068</v>
+        <v>187.8556995158639</v>
       </c>
       <c r="L21" t="n">
-        <v>436.7340760241746</v>
+        <v>449.9962502941316</v>
       </c>
       <c r="M21" t="n">
-        <v>749.8898109784798</v>
+        <v>763.1519852484369</v>
       </c>
       <c r="N21" t="n">
         <v>1054.333227221655</v>
@@ -5853,28 +5853,28 @@
         <v>1265.275696785072</v>
       </c>
       <c r="R21" t="n">
-        <v>1173.494158138647</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="S21" t="n">
-        <v>1002.885385293252</v>
+        <v>1152.337280914766</v>
       </c>
       <c r="T21" t="n">
-        <v>801.308254027677</v>
+        <v>950.7601496491912</v>
       </c>
       <c r="U21" t="n">
-        <v>573.0945834796644</v>
+        <v>722.5464791011786</v>
       </c>
       <c r="V21" t="n">
-        <v>337.9424752479217</v>
+        <v>487.3943708694359</v>
       </c>
       <c r="W21" t="n">
-        <v>337.9424752479217</v>
+        <v>233.1570141412343</v>
       </c>
       <c r="X21" t="n">
-        <v>337.9424752479217</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="Y21" t="n">
-        <v>337.9424752479217</v>
+        <v>25.30551393570144</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.30551393570144</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="C22" t="n">
-        <v>25.30551393570144</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="D22" t="n">
-        <v>25.30551393570144</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="E22" t="n">
-        <v>25.30551393570144</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="F22" t="n">
-        <v>25.30551393570144</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="G22" t="n">
-        <v>25.30551393570144</v>
+        <v>77.12991393221395</v>
       </c>
       <c r="H22" t="n">
         <v>25.30551393570144</v>
@@ -5947,13 +5947,13 @@
         <v>246.6910064450491</v>
       </c>
       <c r="W22" t="n">
-        <v>25.30551393570144</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="X22" t="n">
-        <v>25.30551393570144</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.30551393570144</v>
+        <v>246.6910064450491</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>945.7616319403567</v>
+        <v>741.0700363483664</v>
       </c>
       <c r="C23" t="n">
-        <v>626.2475670956414</v>
+        <v>741.0700363483664</v>
       </c>
       <c r="D23" t="n">
-        <v>626.2475670956414</v>
+        <v>741.0700363483664</v>
       </c>
       <c r="E23" t="n">
-        <v>306.7335022509263</v>
+        <v>741.0700363483664</v>
       </c>
       <c r="F23" t="n">
-        <v>306.7335022509263</v>
+        <v>741.0700363483664</v>
       </c>
       <c r="G23" t="n">
-        <v>306.7335022509263</v>
+        <v>546.5264827086289</v>
       </c>
       <c r="H23" t="n">
-        <v>25.30551393570144</v>
+        <v>227.0124178639138</v>
       </c>
       <c r="I23" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="J23" t="n">
-        <v>36.98387853907138</v>
+        <v>36.9838785390713</v>
       </c>
       <c r="K23" t="n">
         <v>175.2315240234811</v>
       </c>
       <c r="L23" t="n">
-        <v>399.0165804821557</v>
+        <v>399.0165804821555</v>
       </c>
       <c r="M23" t="n">
-        <v>664.6271200295494</v>
+        <v>664.6271200295491</v>
       </c>
       <c r="N23" t="n">
-        <v>919.9035182482766</v>
+        <v>919.9035182482763</v>
       </c>
       <c r="O23" t="n">
-        <v>1115.766144469165</v>
+        <v>1115.766144469164</v>
       </c>
       <c r="P23" t="n">
-        <v>1245.255981599149</v>
+        <v>1245.255981599148</v>
       </c>
       <c r="Q23" t="n">
         <v>1265.275696785072</v>
@@ -6014,25 +6014,25 @@
         <v>1265.275696785072</v>
       </c>
       <c r="S23" t="n">
-        <v>1265.275696785072</v>
+        <v>1060.584101193082</v>
       </c>
       <c r="T23" t="n">
-        <v>1265.275696785072</v>
+        <v>1060.584101193082</v>
       </c>
       <c r="U23" t="n">
-        <v>1265.275696785072</v>
+        <v>1060.584101193082</v>
       </c>
       <c r="V23" t="n">
-        <v>1265.275696785072</v>
+        <v>1060.584101193082</v>
       </c>
       <c r="W23" t="n">
-        <v>1265.275696785072</v>
+        <v>1060.584101193082</v>
       </c>
       <c r="X23" t="n">
-        <v>1265.275696785072</v>
+        <v>1060.584101193082</v>
       </c>
       <c r="Y23" t="n">
-        <v>1265.275696785072</v>
+        <v>1060.584101193082</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>248.9787920556945</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="C24" t="n">
-        <v>248.9787920556945</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="D24" t="n">
-        <v>248.9787920556945</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="E24" t="n">
-        <v>248.9787920556945</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="F24" t="n">
-        <v>248.9787920556945</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="G24" t="n">
-        <v>110.399171915405</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="H24" t="n">
-        <v>110.399171915405</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="I24" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="J24" t="n">
-        <v>25.30551393570144</v>
+        <v>38.56768820565854</v>
       </c>
       <c r="K24" t="n">
-        <v>174.5935252459068</v>
+        <v>38.56768820565854</v>
       </c>
       <c r="L24" t="n">
-        <v>436.7340760241746</v>
+        <v>266.6394598000943</v>
       </c>
       <c r="M24" t="n">
-        <v>749.8898109784798</v>
+        <v>579.7951947543995</v>
       </c>
       <c r="N24" t="n">
-        <v>966.0215420209549</v>
+        <v>892.9509297087047</v>
       </c>
       <c r="O24" t="n">
-        <v>966.0215420209549</v>
+        <v>1176.964011584372</v>
       </c>
       <c r="P24" t="n">
         <v>1176.964011584372</v>
@@ -6090,28 +6090,28 @@
         <v>1265.275696785072</v>
       </c>
       <c r="R24" t="n">
-        <v>1265.275696785072</v>
+        <v>1173.494158138647</v>
       </c>
       <c r="S24" t="n">
-        <v>1265.275696785072</v>
+        <v>1002.885385293251</v>
       </c>
       <c r="T24" t="n">
-        <v>1265.275696785072</v>
+        <v>950.7601496491912</v>
       </c>
       <c r="U24" t="n">
-        <v>1265.275696785072</v>
+        <v>722.5464791011786</v>
       </c>
       <c r="V24" t="n">
-        <v>1030.123588553329</v>
+        <v>487.3943708694359</v>
       </c>
       <c r="W24" t="n">
-        <v>775.8862318251277</v>
+        <v>233.1570141412343</v>
       </c>
       <c r="X24" t="n">
-        <v>568.0347316195948</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="Y24" t="n">
-        <v>417.1941290757625</v>
+        <v>25.30551393570143</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="C25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="D25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="E25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="F25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="G25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="H25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="J25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="K25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="L25" t="n">
         <v>71.0911538293166</v>
@@ -6175,22 +6175,22 @@
         <v>246.6910064450491</v>
       </c>
       <c r="T25" t="n">
-        <v>246.6910064450491</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="U25" t="n">
-        <v>246.6910064450491</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="V25" t="n">
-        <v>246.6910064450491</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="W25" t="n">
-        <v>246.6910064450491</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="X25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
       <c r="Y25" t="n">
-        <v>25.30551393570144</v>
+        <v>25.30551393570143</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.62124850398902</v>
+        <v>607.4390723528986</v>
       </c>
       <c r="C26" t="n">
-        <v>82.62124850398902</v>
+        <v>607.4390723528986</v>
       </c>
       <c r="D26" t="n">
-        <v>82.62124850398902</v>
+        <v>607.4390723528986</v>
       </c>
       <c r="E26" t="n">
-        <v>82.62124850398902</v>
+        <v>607.4390723528986</v>
       </c>
       <c r="F26" t="n">
-        <v>82.62124850398902</v>
+        <v>344.8195787804166</v>
       </c>
       <c r="G26" t="n">
-        <v>82.62124850398902</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="H26" t="n">
-        <v>82.62124850398902</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="I26" t="n">
         <v>25.30551393570144</v>
       </c>
       <c r="J26" t="n">
-        <v>36.98387853907127</v>
+        <v>36.98387853907116</v>
       </c>
       <c r="K26" t="n">
         <v>175.2315240234811</v>
@@ -6236,7 +6236,7 @@
         <v>664.6271200295494</v>
       </c>
       <c r="N26" t="n">
-        <v>919.9035182482763</v>
+        <v>919.9035182482764</v>
       </c>
       <c r="O26" t="n">
         <v>1115.766144469165</v>
@@ -6248,28 +6248,28 @@
         <v>1265.275696785072</v>
       </c>
       <c r="R26" t="n">
-        <v>1265.275696785072</v>
+        <v>1131.644732789604</v>
       </c>
       <c r="S26" t="n">
-        <v>1265.275696785072</v>
+        <v>926.9531371976138</v>
       </c>
       <c r="T26" t="n">
-        <v>1041.163443038135</v>
+        <v>926.9531371976138</v>
       </c>
       <c r="U26" t="n">
-        <v>1041.163443038135</v>
+        <v>926.9531371976138</v>
       </c>
       <c r="V26" t="n">
-        <v>1041.163443038135</v>
+        <v>926.9531371976138</v>
       </c>
       <c r="W26" t="n">
-        <v>1041.163443038135</v>
+        <v>926.9531371976138</v>
       </c>
       <c r="X26" t="n">
-        <v>721.6493781934194</v>
+        <v>926.9531371976138</v>
       </c>
       <c r="Y26" t="n">
-        <v>402.1353133487042</v>
+        <v>607.4390723528986</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>337.9424752479217</v>
+        <v>530.4798475246937</v>
       </c>
       <c r="C27" t="n">
-        <v>337.9424752479217</v>
+        <v>530.4798475246937</v>
       </c>
       <c r="D27" t="n">
-        <v>337.9424752479217</v>
+        <v>381.5454378634424</v>
       </c>
       <c r="E27" t="n">
-        <v>337.9424752479217</v>
+        <v>222.3079828579869</v>
       </c>
       <c r="F27" t="n">
-        <v>337.9424752479217</v>
+        <v>222.3079828579869</v>
       </c>
       <c r="G27" t="n">
-        <v>199.3628551076322</v>
+        <v>222.3079828579869</v>
       </c>
       <c r="H27" t="n">
         <v>110.399171915405</v>
@@ -6303,22 +6303,22 @@
         <v>25.30551393570144</v>
       </c>
       <c r="J27" t="n">
-        <v>25.30551393570144</v>
+        <v>38.56768820565854</v>
       </c>
       <c r="K27" t="n">
-        <v>174.5935252459068</v>
+        <v>187.8556995158639</v>
       </c>
       <c r="L27" t="n">
-        <v>174.5935252459068</v>
+        <v>354.9511450007942</v>
       </c>
       <c r="M27" t="n">
-        <v>457.1644103916821</v>
+        <v>668.1068799550994</v>
       </c>
       <c r="N27" t="n">
-        <v>770.3201453459874</v>
+        <v>981.2626149094046</v>
       </c>
       <c r="O27" t="n">
-        <v>1054.333227221655</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="P27" t="n">
         <v>1265.275696785072</v>
@@ -6327,28 +6327,28 @@
         <v>1265.275696785072</v>
       </c>
       <c r="R27" t="n">
-        <v>1173.494158138647</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="S27" t="n">
-        <v>1002.885385293252</v>
+        <v>1094.666923939677</v>
       </c>
       <c r="T27" t="n">
-        <v>801.308254027677</v>
+        <v>1094.666923939677</v>
       </c>
       <c r="U27" t="n">
-        <v>573.0945834796644</v>
+        <v>866.4532533916641</v>
       </c>
       <c r="V27" t="n">
-        <v>337.9424752479217</v>
+        <v>866.4532533916641</v>
       </c>
       <c r="W27" t="n">
-        <v>337.9424752479217</v>
+        <v>612.2158966634624</v>
       </c>
       <c r="X27" t="n">
-        <v>337.9424752479217</v>
+        <v>612.2158966634624</v>
       </c>
       <c r="Y27" t="n">
-        <v>337.9424752479217</v>
+        <v>612.2158966634624</v>
       </c>
     </row>
     <row r="28">
@@ -6361,22 +6361,22 @@
         <v>1265.275696785072</v>
       </c>
       <c r="C28" t="n">
-        <v>1265.275696785072</v>
+        <v>1194.00684368806</v>
       </c>
       <c r="D28" t="n">
-        <v>1265.275696785072</v>
+        <v>1043.890204275724</v>
       </c>
       <c r="E28" t="n">
-        <v>1265.275696785072</v>
+        <v>1043.890204275724</v>
       </c>
       <c r="F28" t="n">
-        <v>1265.275696785072</v>
+        <v>1043.890204275724</v>
       </c>
       <c r="G28" t="n">
-        <v>1265.275696785072</v>
+        <v>1043.890204275724</v>
       </c>
       <c r="H28" t="n">
-        <v>1102.53692583904</v>
+        <v>1043.890204275724</v>
       </c>
       <c r="I28" t="n">
         <v>1043.890204275724</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>607.4390723528986</v>
+        <v>448.978993705554</v>
       </c>
       <c r="C29" t="n">
-        <v>607.4390723528986</v>
+        <v>448.978993705554</v>
       </c>
       <c r="D29" t="n">
-        <v>287.9250075081835</v>
+        <v>448.978993705554</v>
       </c>
       <c r="E29" t="n">
-        <v>287.9250075081835</v>
+        <v>448.978993705554</v>
       </c>
       <c r="F29" t="n">
-        <v>287.9250075081835</v>
+        <v>129.4649288608388</v>
       </c>
       <c r="G29" t="n">
-        <v>287.9250075081835</v>
+        <v>129.4649288608388</v>
       </c>
       <c r="H29" t="n">
-        <v>227.0124178639138</v>
+        <v>129.4649288608388</v>
       </c>
       <c r="I29" t="n">
         <v>25.30551393570144</v>
       </c>
       <c r="J29" t="n">
-        <v>36.98387853907128</v>
+        <v>36.98387853907127</v>
       </c>
       <c r="K29" t="n">
         <v>175.2315240234811</v>
@@ -6473,7 +6473,7 @@
         <v>664.6271200295494</v>
       </c>
       <c r="N29" t="n">
-        <v>919.9035182482766</v>
+        <v>919.9035182482763</v>
       </c>
       <c r="O29" t="n">
         <v>1115.766144469165</v>
@@ -6491,22 +6491,22 @@
         <v>926.9531371976138</v>
       </c>
       <c r="T29" t="n">
-        <v>926.9531371976138</v>
+        <v>702.8408834506765</v>
       </c>
       <c r="U29" t="n">
-        <v>926.9531371976138</v>
+        <v>448.978993705554</v>
       </c>
       <c r="V29" t="n">
-        <v>926.9531371976138</v>
+        <v>448.978993705554</v>
       </c>
       <c r="W29" t="n">
-        <v>926.9531371976138</v>
+        <v>448.978993705554</v>
       </c>
       <c r="X29" t="n">
-        <v>926.9531371976138</v>
+        <v>448.978993705554</v>
       </c>
       <c r="Y29" t="n">
-        <v>607.4390723528986</v>
+        <v>448.978993705554</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>460.6017638206616</v>
+        <v>543.2811656254232</v>
       </c>
       <c r="C30" t="n">
-        <v>286.1487345395346</v>
+        <v>368.8281363442962</v>
       </c>
       <c r="D30" t="n">
-        <v>137.2143248782834</v>
+        <v>368.8281363442962</v>
       </c>
       <c r="E30" t="n">
-        <v>137.2143248782834</v>
+        <v>368.8281363442962</v>
       </c>
       <c r="F30" t="n">
-        <v>137.2143248782834</v>
+        <v>222.2935783711812</v>
       </c>
       <c r="G30" t="n">
-        <v>137.2143248782834</v>
+        <v>83.71395823089173</v>
       </c>
       <c r="H30" t="n">
-        <v>25.30551393570144</v>
+        <v>83.71395823089173</v>
       </c>
       <c r="I30" t="n">
         <v>25.30551393570144</v>
@@ -6543,49 +6543,49 @@
         <v>25.30551393570144</v>
       </c>
       <c r="K30" t="n">
-        <v>174.5935252459068</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="L30" t="n">
-        <v>436.7340760241747</v>
+        <v>287.4460647139692</v>
       </c>
       <c r="M30" t="n">
-        <v>749.88981097848</v>
+        <v>457.1644103916821</v>
       </c>
       <c r="N30" t="n">
-        <v>892.950929708705</v>
+        <v>770.3201453459874</v>
       </c>
       <c r="O30" t="n">
-        <v>1176.964011584372</v>
+        <v>1054.333227221655</v>
       </c>
       <c r="P30" t="n">
-        <v>1176.964011584372</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="Q30" t="n">
         <v>1265.275696785072</v>
       </c>
       <c r="R30" t="n">
-        <v>1265.275696785072</v>
+        <v>1173.494158138647</v>
       </c>
       <c r="S30" t="n">
-        <v>1265.275696785072</v>
+        <v>1173.494158138647</v>
       </c>
       <c r="T30" t="n">
-        <v>1265.275696785072</v>
+        <v>1173.494158138647</v>
       </c>
       <c r="U30" t="n">
-        <v>1265.275696785072</v>
+        <v>1173.494158138647</v>
       </c>
       <c r="V30" t="n">
-        <v>1265.275696785072</v>
+        <v>1173.494158138647</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.03834005687</v>
+        <v>919.2568014104452</v>
       </c>
       <c r="X30" t="n">
-        <v>836.5773996056835</v>
+        <v>919.2568014104452</v>
       </c>
       <c r="Y30" t="n">
-        <v>628.8171008407296</v>
+        <v>711.4965026454913</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1191.803297858117</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="C31" t="n">
-        <v>1191.803297858117</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="D31" t="n">
-        <v>1191.803297858117</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="E31" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="F31" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="G31" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="H31" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="I31" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="J31" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="K31" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="L31" t="n">
-        <v>1089.675844169339</v>
+        <v>71.09115382931661</v>
       </c>
       <c r="M31" t="n">
-        <v>1148.33950491125</v>
+        <v>129.7548145712276</v>
       </c>
       <c r="N31" t="n">
-        <v>1211.042891342301</v>
+        <v>192.458201002278</v>
       </c>
       <c r="O31" t="n">
-        <v>1252.943322034067</v>
+        <v>234.3586316940445</v>
       </c>
       <c r="P31" t="n">
-        <v>1265.275696785072</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="Q31" t="n">
-        <v>1265.275696785072</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="R31" t="n">
-        <v>1191.803297858117</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="S31" t="n">
-        <v>1191.803297858117</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="T31" t="n">
-        <v>1191.803297858117</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="U31" t="n">
-        <v>1191.803297858117</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.803297858117</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.803297858117</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="X31" t="n">
-        <v>1191.803297858117</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="Y31" t="n">
-        <v>1191.803297858117</v>
+        <v>25.30551393570144</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>626.2475670956414</v>
       </c>
       <c r="C32" t="n">
-        <v>626.2475670956414</v>
+        <v>306.7335022509263</v>
       </c>
       <c r="D32" t="n">
-        <v>626.2475670956414</v>
+        <v>306.7335022509263</v>
       </c>
       <c r="E32" t="n">
-        <v>626.2475670956414</v>
+        <v>306.7335022509263</v>
       </c>
       <c r="F32" t="n">
-        <v>626.2475670956414</v>
+        <v>306.7335022509263</v>
       </c>
       <c r="G32" t="n">
         <v>306.7335022509263</v>
@@ -6734,10 +6734,10 @@
         <v>1265.275696785072</v>
       </c>
       <c r="V32" t="n">
-        <v>945.7616319403567</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="W32" t="n">
-        <v>945.7616319403567</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="X32" t="n">
         <v>945.7616319403567</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>335.4296654198904</v>
+        <v>367.2128705383711</v>
       </c>
       <c r="C33" t="n">
-        <v>335.4296654198904</v>
+        <v>367.2128705383711</v>
       </c>
       <c r="D33" t="n">
-        <v>335.4296654198904</v>
+        <v>367.2128705383711</v>
       </c>
       <c r="E33" t="n">
-        <v>335.4296654198904</v>
+        <v>367.2128705383711</v>
       </c>
       <c r="F33" t="n">
-        <v>335.4296654198904</v>
+        <v>220.678312565256</v>
       </c>
       <c r="G33" t="n">
-        <v>222.3079828579869</v>
+        <v>220.678312565256</v>
       </c>
       <c r="H33" t="n">
         <v>110.399171915405</v>
@@ -6780,49 +6780,49 @@
         <v>38.56768820565856</v>
       </c>
       <c r="K33" t="n">
-        <v>187.8556995158639</v>
+        <v>38.56768820565856</v>
       </c>
       <c r="L33" t="n">
-        <v>449.9962502941318</v>
+        <v>300.7082389839264</v>
       </c>
       <c r="M33" t="n">
-        <v>763.1519852484371</v>
+        <v>613.8639739382317</v>
       </c>
       <c r="N33" t="n">
-        <v>1076.307720202742</v>
+        <v>770.3201453459874</v>
       </c>
       <c r="O33" t="n">
-        <v>1176.964011584372</v>
+        <v>1054.333227221655</v>
       </c>
       <c r="P33" t="n">
-        <v>1176.964011584372</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="Q33" t="n">
         <v>1265.275696785072</v>
       </c>
       <c r="R33" t="n">
-        <v>1173.494158138647</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="S33" t="n">
-        <v>1173.494158138647</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.494158138647</v>
+        <v>1265.275696785072</v>
       </c>
       <c r="U33" t="n">
-        <v>1173.494158138647</v>
+        <v>1037.062026237059</v>
       </c>
       <c r="V33" t="n">
-        <v>1173.494158138647</v>
+        <v>1037.062026237059</v>
       </c>
       <c r="W33" t="n">
-        <v>919.2568014104452</v>
+        <v>782.8246695088578</v>
       </c>
       <c r="X33" t="n">
-        <v>711.4053012049123</v>
+        <v>574.973169303325</v>
       </c>
       <c r="Y33" t="n">
-        <v>503.6450024399584</v>
+        <v>367.2128705383711</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="C34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="D34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="E34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="F34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="G34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="H34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="I34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="J34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="K34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="L34" t="n">
-        <v>1089.675844169339</v>
+        <v>71.09115382931661</v>
       </c>
       <c r="M34" t="n">
-        <v>1148.33950491125</v>
+        <v>129.7548145712276</v>
       </c>
       <c r="N34" t="n">
-        <v>1211.042891342301</v>
+        <v>192.458201002278</v>
       </c>
       <c r="O34" t="n">
-        <v>1252.943322034067</v>
+        <v>234.3586316940445</v>
       </c>
       <c r="P34" t="n">
-        <v>1265.275696785072</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="Q34" t="n">
-        <v>1265.275696785072</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="R34" t="n">
-        <v>1265.275696785072</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="S34" t="n">
-        <v>1265.275696785072</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="T34" t="n">
-        <v>1265.275696785072</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="U34" t="n">
-        <v>1043.890204275724</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="V34" t="n">
-        <v>1043.890204275724</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="W34" t="n">
-        <v>1043.890204275724</v>
+        <v>246.6910064450491</v>
       </c>
       <c r="X34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
       <c r="Y34" t="n">
-        <v>1043.890204275724</v>
+        <v>25.30551393570144</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>574.9003018551684</v>
+        <v>185.5510433094695</v>
       </c>
       <c r="C35" t="n">
-        <v>574.9003018551684</v>
+        <v>185.5510433094695</v>
       </c>
       <c r="D35" t="n">
-        <v>574.9003018551684</v>
+        <v>185.5510433094695</v>
       </c>
       <c r="E35" t="n">
-        <v>281.5838213168172</v>
+        <v>185.5510433094695</v>
       </c>
       <c r="F35" t="n">
-        <v>23.23066525863742</v>
+        <v>185.5510433094695</v>
       </c>
       <c r="G35" t="n">
-        <v>23.23066525863742</v>
+        <v>185.5510433094695</v>
       </c>
       <c r="H35" t="n">
-        <v>23.23066525863742</v>
+        <v>185.5510433094695</v>
       </c>
       <c r="I35" t="n">
         <v>23.23066525863742</v>
@@ -6938,22 +6938,22 @@
         <v>34.90902986200726</v>
       </c>
       <c r="K35" t="n">
-        <v>173.156675346417</v>
+        <v>71.48909017027975</v>
       </c>
       <c r="L35" t="n">
-        <v>396.9417318050916</v>
+        <v>295.2741466289544</v>
       </c>
       <c r="M35" t="n">
-        <v>662.5522713524854</v>
+        <v>560.8846861763481</v>
       </c>
       <c r="N35" t="n">
-        <v>917.8286695712126</v>
+        <v>816.1610843950752</v>
       </c>
       <c r="O35" t="n">
-        <v>1012.023710615964</v>
+        <v>1012.023710615963</v>
       </c>
       <c r="P35" t="n">
-        <v>1141.513547745948</v>
+        <v>1141.513547745947</v>
       </c>
       <c r="Q35" t="n">
         <v>1161.533262931871</v>
@@ -6962,25 +6962,25 @@
         <v>1161.533262931871</v>
       </c>
       <c r="S35" t="n">
-        <v>1161.533262931871</v>
+        <v>956.8416673398806</v>
       </c>
       <c r="T35" t="n">
-        <v>1161.533262931871</v>
+        <v>732.7294135929433</v>
       </c>
       <c r="U35" t="n">
-        <v>1161.533262931871</v>
+        <v>478.8675238478207</v>
       </c>
       <c r="V35" t="n">
-        <v>1161.533262931871</v>
+        <v>478.8675238478207</v>
       </c>
       <c r="W35" t="n">
-        <v>1161.533262931871</v>
+        <v>185.5510433094695</v>
       </c>
       <c r="X35" t="n">
-        <v>868.2167823935197</v>
+        <v>185.5510433094695</v>
       </c>
       <c r="Y35" t="n">
-        <v>574.9003018551684</v>
+        <v>185.5510433094695</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>358.8127543212124</v>
+        <v>108.324323238341</v>
       </c>
       <c r="C36" t="n">
-        <v>358.8127543212124</v>
+        <v>108.324323238341</v>
       </c>
       <c r="D36" t="n">
-        <v>358.8127543212124</v>
+        <v>108.324323238341</v>
       </c>
       <c r="E36" t="n">
-        <v>358.8127543212124</v>
+        <v>108.324323238341</v>
       </c>
       <c r="F36" t="n">
-        <v>358.8127543212124</v>
+        <v>108.324323238341</v>
       </c>
       <c r="G36" t="n">
-        <v>220.2331341809229</v>
+        <v>108.324323238341</v>
       </c>
       <c r="H36" t="n">
         <v>108.324323238341</v>
@@ -7014,25 +7014,25 @@
         <v>23.23066525863742</v>
       </c>
       <c r="J36" t="n">
-        <v>36.49283952859454</v>
+        <v>36.49283952859453</v>
       </c>
       <c r="K36" t="n">
         <v>185.7808508387999</v>
       </c>
       <c r="L36" t="n">
-        <v>185.7808508387999</v>
+        <v>447.9214016170677</v>
       </c>
       <c r="M36" t="n">
-        <v>290.7865437164487</v>
+        <v>735.4008841927057</v>
       </c>
       <c r="N36" t="n">
-        <v>578.2660262920867</v>
+        <v>1022.880366768344</v>
       </c>
       <c r="O36" t="n">
-        <v>862.279108167754</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="P36" t="n">
-        <v>1073.221577731171</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="Q36" t="n">
         <v>1161.533262931871</v>
@@ -7041,25 +7041,25 @@
         <v>1069.751724285446</v>
       </c>
       <c r="S36" t="n">
-        <v>899.1429514400506</v>
+        <v>1069.751724285446</v>
       </c>
       <c r="T36" t="n">
-        <v>697.565820174476</v>
+        <v>1069.751724285446</v>
       </c>
       <c r="U36" t="n">
-        <v>566.6642545267453</v>
+        <v>1069.751724285446</v>
       </c>
       <c r="V36" t="n">
-        <v>566.6642545267453</v>
+        <v>946.3888159570974</v>
       </c>
       <c r="W36" t="n">
-        <v>566.6642545267453</v>
+        <v>692.1514592288958</v>
       </c>
       <c r="X36" t="n">
-        <v>358.8127543212124</v>
+        <v>484.2999590233629</v>
       </c>
       <c r="Y36" t="n">
-        <v>358.8127543212124</v>
+        <v>276.539660258409</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23.23066525863742</v>
+        <v>23.823578624455</v>
       </c>
       <c r="C37" t="n">
-        <v>23.23066525863742</v>
+        <v>23.823578624455</v>
       </c>
       <c r="D37" t="n">
-        <v>23.23066525863742</v>
+        <v>23.823578624455</v>
       </c>
       <c r="E37" t="n">
         <v>23.23066525863742</v>
@@ -7114,31 +7114,31 @@
         <v>244.6161577679851</v>
       </c>
       <c r="Q37" t="n">
-        <v>168.1986665715681</v>
+        <v>244.6161577679851</v>
       </c>
       <c r="R37" t="n">
-        <v>168.1986665715681</v>
+        <v>244.6161577679851</v>
       </c>
       <c r="S37" t="n">
-        <v>168.1986665715681</v>
+        <v>244.6161577679851</v>
       </c>
       <c r="T37" t="n">
-        <v>168.1986665715681</v>
+        <v>244.6161577679851</v>
       </c>
       <c r="U37" t="n">
-        <v>168.1986665715681</v>
+        <v>244.6161577679851</v>
       </c>
       <c r="V37" t="n">
-        <v>23.23066525863742</v>
+        <v>244.6161577679851</v>
       </c>
       <c r="W37" t="n">
-        <v>23.23066525863742</v>
+        <v>244.6161577679851</v>
       </c>
       <c r="X37" t="n">
-        <v>23.23066525863742</v>
+        <v>244.6161577679851</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.23066525863742</v>
+        <v>23.823578624455</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>956.8416673398808</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="C38" t="n">
-        <v>956.8416673398808</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="D38" t="n">
-        <v>663.5251868015296</v>
+        <v>868.2167823935195</v>
       </c>
       <c r="E38" t="n">
-        <v>609.8636263353399</v>
+        <v>868.2167823935195</v>
       </c>
       <c r="F38" t="n">
-        <v>316.5471457969887</v>
+        <v>574.9003018551682</v>
       </c>
       <c r="G38" t="n">
-        <v>23.23066525863742</v>
+        <v>281.583821316817</v>
       </c>
       <c r="H38" t="n">
         <v>23.23066525863742</v>
@@ -7178,19 +7178,19 @@
         <v>173.156675346417</v>
       </c>
       <c r="L38" t="n">
-        <v>295.2741466289546</v>
+        <v>396.9417318050916</v>
       </c>
       <c r="M38" t="n">
-        <v>560.8846861763483</v>
+        <v>662.5522713524854</v>
       </c>
       <c r="N38" t="n">
-        <v>816.1610843950755</v>
+        <v>917.8286695712126</v>
       </c>
       <c r="O38" t="n">
-        <v>1012.023710615964</v>
+        <v>1012.023710615963</v>
       </c>
       <c r="P38" t="n">
-        <v>1141.513547745948</v>
+        <v>1141.513547745947</v>
       </c>
       <c r="Q38" t="n">
         <v>1161.533262931871</v>
@@ -7199,25 +7199,25 @@
         <v>1161.533262931871</v>
       </c>
       <c r="S38" t="n">
-        <v>956.8416673398808</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="T38" t="n">
-        <v>956.8416673398808</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="U38" t="n">
-        <v>956.8416673398808</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="V38" t="n">
-        <v>956.8416673398808</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="W38" t="n">
-        <v>956.8416673398808</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="X38" t="n">
-        <v>956.8416673398808</v>
+        <v>1161.533262931871</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.8416673398808</v>
+        <v>1161.533262931871</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>464.3834992069728</v>
+        <v>34.59269739338521</v>
       </c>
       <c r="C39" t="n">
-        <v>464.3834992069728</v>
+        <v>34.59269739338521</v>
       </c>
       <c r="D39" t="n">
-        <v>315.4490895457215</v>
+        <v>23.23066525863742</v>
       </c>
       <c r="E39" t="n">
-        <v>315.4490895457215</v>
+        <v>23.23066525863742</v>
       </c>
       <c r="F39" t="n">
-        <v>315.4490895457215</v>
+        <v>23.23066525863742</v>
       </c>
       <c r="G39" t="n">
-        <v>220.2331341809229</v>
+        <v>23.23066525863742</v>
       </c>
       <c r="H39" t="n">
-        <v>108.324323238341</v>
+        <v>23.23066525863742</v>
       </c>
       <c r="I39" t="n">
         <v>23.23066525863742</v>
       </c>
       <c r="J39" t="n">
-        <v>36.49283952859454</v>
+        <v>36.49283952859453</v>
       </c>
       <c r="K39" t="n">
         <v>185.7808508387999</v>
       </c>
       <c r="L39" t="n">
-        <v>185.7808508387999</v>
+        <v>379.0982289171482</v>
       </c>
       <c r="M39" t="n">
-        <v>379.0982289171484</v>
+        <v>379.0982289171482</v>
       </c>
       <c r="N39" t="n">
-        <v>666.5777114927864</v>
+        <v>666.5777114927862</v>
       </c>
       <c r="O39" t="n">
-        <v>950.5907933684537</v>
+        <v>950.5907933684534</v>
       </c>
       <c r="P39" t="n">
         <v>1161.533262931871</v>
@@ -7281,22 +7281,22 @@
         <v>1161.533262931871</v>
       </c>
       <c r="T39" t="n">
-        <v>1161.533262931871</v>
+        <v>959.9561316662961</v>
       </c>
       <c r="U39" t="n">
-        <v>1161.533262931871</v>
+        <v>731.7424611182835</v>
       </c>
       <c r="V39" t="n">
-        <v>926.3811547001283</v>
+        <v>496.5903528865408</v>
       </c>
       <c r="W39" t="n">
-        <v>672.1437979719267</v>
+        <v>242.3529961583391</v>
       </c>
       <c r="X39" t="n">
-        <v>672.1437979719267</v>
+        <v>242.3529961583391</v>
       </c>
       <c r="Y39" t="n">
-        <v>464.3834992069728</v>
+        <v>34.59269739338521</v>
       </c>
     </row>
     <row r="40">
@@ -7309,40 +7309,40 @@
         <v>1161.533262931871</v>
       </c>
       <c r="C40" t="n">
-        <v>1088.060864004916</v>
+        <v>992.5970800039638</v>
       </c>
       <c r="D40" t="n">
-        <v>1088.060864004916</v>
+        <v>940.1477704225229</v>
       </c>
       <c r="E40" t="n">
-        <v>940.1477704225231</v>
+        <v>940.1477704225229</v>
       </c>
       <c r="F40" t="n">
-        <v>940.1477704225231</v>
+        <v>940.1477704225229</v>
       </c>
       <c r="G40" t="n">
-        <v>940.1477704225231</v>
+        <v>940.1477704225229</v>
       </c>
       <c r="H40" t="n">
-        <v>940.1477704225231</v>
+        <v>940.1477704225229</v>
       </c>
       <c r="I40" t="n">
-        <v>940.1477704225231</v>
+        <v>940.1477704225229</v>
       </c>
       <c r="J40" t="n">
-        <v>940.1477704225231</v>
+        <v>940.1477704225229</v>
       </c>
       <c r="K40" t="n">
-        <v>940.1477704225231</v>
+        <v>940.1477704225229</v>
       </c>
       <c r="L40" t="n">
-        <v>985.9334103161383</v>
+        <v>985.9334103161381</v>
       </c>
       <c r="M40" t="n">
         <v>1044.597071058049</v>
       </c>
       <c r="N40" t="n">
-        <v>1107.3004574891</v>
+        <v>1107.300457489099</v>
       </c>
       <c r="O40" t="n">
         <v>1149.200888180866</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>308.1530155746241</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="C41" t="n">
-        <v>308.1530155746241</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="D41" t="n">
-        <v>308.1530155746241</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="E41" t="n">
-        <v>308.1530155746241</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="F41" t="n">
-        <v>308.1530155746241</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="G41" t="n">
-        <v>308.1530155746241</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="H41" t="n">
         <v>22.61463939354172</v>
@@ -7409,22 +7409,22 @@
         <v>22.61463939354172</v>
       </c>
       <c r="J41" t="n">
-        <v>34.29300399691157</v>
+        <v>31.92998856106919</v>
       </c>
       <c r="K41" t="n">
-        <v>172.5406494813213</v>
+        <v>170.177634045479</v>
       </c>
       <c r="L41" t="n">
-        <v>396.3257059399959</v>
+        <v>393.9626905041536</v>
       </c>
       <c r="M41" t="n">
-        <v>530.0833929215634</v>
+        <v>659.5732300515473</v>
       </c>
       <c r="N41" t="n">
-        <v>785.3597911402906</v>
+        <v>914.8496282702745</v>
       </c>
       <c r="O41" t="n">
-        <v>981.2224173611787</v>
+        <v>1110.712254491163</v>
       </c>
       <c r="P41" t="n">
         <v>1110.712254491163</v>
@@ -7436,25 +7436,25 @@
         <v>1130.731969677086</v>
       </c>
       <c r="S41" t="n">
-        <v>1130.731969677086</v>
+        <v>1071.665535247766</v>
       </c>
       <c r="T41" t="n">
-        <v>1130.731969677086</v>
+        <v>847.553281500829</v>
       </c>
       <c r="U41" t="n">
-        <v>879.2297679367889</v>
+        <v>593.6913917557065</v>
       </c>
       <c r="V41" t="n">
-        <v>593.6913917557065</v>
+        <v>308.1530155746241</v>
       </c>
       <c r="W41" t="n">
-        <v>308.1530155746241</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="X41" t="n">
-        <v>308.1530155746241</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="Y41" t="n">
-        <v>308.1530155746241</v>
+        <v>22.61463939354172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>708.2792759288163</v>
+        <v>500.5189771638625</v>
       </c>
       <c r="C42" t="n">
-        <v>533.8262466476893</v>
+        <v>477.3210620333635</v>
       </c>
       <c r="D42" t="n">
-        <v>384.8918369864381</v>
+        <v>328.3866523721123</v>
       </c>
       <c r="E42" t="n">
-        <v>384.8918369864381</v>
+        <v>169.1491973666568</v>
       </c>
       <c r="F42" t="n">
-        <v>358.1967284561167</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="G42" t="n">
-        <v>219.6171083158272</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7082973732453</v>
+        <v>22.61463939354172</v>
       </c>
       <c r="I42" t="n">
         <v>22.61463939354172</v>
@@ -7497,16 +7497,16 @@
         <v>447.3053757519721</v>
       </c>
       <c r="M42" t="n">
-        <v>727.1615382470509</v>
+        <v>482.7079594862288</v>
       </c>
       <c r="N42" t="n">
-        <v>1007.01770074213</v>
+        <v>762.5641219813076</v>
       </c>
       <c r="O42" t="n">
-        <v>1130.731969677086</v>
+        <v>1042.420284476386</v>
       </c>
       <c r="P42" t="n">
-        <v>1130.731969677086</v>
+        <v>1042.420284476386</v>
       </c>
       <c r="Q42" t="n">
         <v>1130.731969677086</v>
@@ -7533,7 +7533,7 @@
         <v>876.4946129488844</v>
       </c>
       <c r="Y42" t="n">
-        <v>876.4946129488844</v>
+        <v>668.7343141839306</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7597,7 @@
         <v>244.0001319028894</v>
       </c>
       <c r="T43" t="n">
-        <v>22.61463939354172</v>
+        <v>244.0001319028894</v>
       </c>
       <c r="U43" t="n">
         <v>22.61463939354172</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.80778732512763</v>
+        <v>2.049623295570464</v>
       </c>
       <c r="C44" t="n">
-        <v>27.92870531034905</v>
+        <v>2.049623295570464</v>
       </c>
       <c r="D44" t="n">
         <v>2.049623295570464</v>
@@ -7646,19 +7646,19 @@
         <v>2.049623295570464</v>
       </c>
       <c r="J44" t="n">
-        <v>2.049623295570464</v>
+        <v>13.72798789894031</v>
       </c>
       <c r="K44" t="n">
-        <v>27.41371157825495</v>
+        <v>13.72798789894031</v>
       </c>
       <c r="L44" t="n">
-        <v>52.77779986093944</v>
+        <v>13.72798789894031</v>
       </c>
       <c r="M44" t="n">
-        <v>52.77779986093944</v>
+        <v>13.72798789894031</v>
       </c>
       <c r="N44" t="n">
-        <v>52.77779986093944</v>
+        <v>31.73327302723076</v>
       </c>
       <c r="O44" t="n">
         <v>57.09736130991524</v>
@@ -7670,28 +7670,28 @@
         <v>102.4811647785232</v>
       </c>
       <c r="R44" t="n">
+        <v>102.4811647785232</v>
+      </c>
+      <c r="S44" t="n">
+        <v>102.4811647785232</v>
+      </c>
+      <c r="T44" t="n">
+        <v>102.4811647785232</v>
+      </c>
+      <c r="U44" t="n">
         <v>79.68686933990621</v>
-      </c>
-      <c r="S44" t="n">
-        <v>79.68686933990621</v>
-      </c>
-      <c r="T44" t="n">
-        <v>79.68686933990621</v>
-      </c>
-      <c r="U44" t="n">
-        <v>53.80778732512763</v>
       </c>
       <c r="V44" t="n">
         <v>53.80778732512763</v>
       </c>
       <c r="W44" t="n">
-        <v>53.80778732512763</v>
+        <v>27.92870531034905</v>
       </c>
       <c r="X44" t="n">
-        <v>53.80778732512763</v>
+        <v>2.049623295570464</v>
       </c>
       <c r="Y44" t="n">
-        <v>53.80778732512763</v>
+        <v>2.049623295570464</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>24.84391873418743</v>
+        <v>53.80778732512763</v>
       </c>
       <c r="C45" t="n">
-        <v>24.84391873418743</v>
+        <v>27.92870531034905</v>
       </c>
       <c r="D45" t="n">
-        <v>24.84391873418743</v>
+        <v>27.92870531034905</v>
       </c>
       <c r="E45" t="n">
-        <v>24.84391873418743</v>
+        <v>2.049623295570464</v>
       </c>
       <c r="F45" t="n">
-        <v>24.84391873418743</v>
+        <v>2.049623295570464</v>
       </c>
       <c r="G45" t="n">
-        <v>24.84391873418743</v>
+        <v>2.049623295570464</v>
       </c>
       <c r="H45" t="n">
         <v>2.049623295570464</v>
@@ -7737,10 +7737,10 @@
         <v>52.77779986093944</v>
       </c>
       <c r="N45" t="n">
-        <v>52.77779986093944</v>
+        <v>78.14188814362393</v>
       </c>
       <c r="O45" t="n">
-        <v>78.14188814362393</v>
+        <v>102.4811647785232</v>
       </c>
       <c r="P45" t="n">
         <v>102.4811647785232</v>
@@ -7752,25 +7752,25 @@
         <v>102.4811647785232</v>
       </c>
       <c r="S45" t="n">
+        <v>102.4811647785232</v>
+      </c>
+      <c r="T45" t="n">
+        <v>102.4811647785232</v>
+      </c>
+      <c r="U45" t="n">
         <v>76.60208276374459</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>76.60208276374459</v>
       </c>
-      <c r="U45" t="n">
-        <v>50.72300074896601</v>
-      </c>
-      <c r="V45" t="n">
-        <v>50.72300074896601</v>
-      </c>
       <c r="W45" t="n">
-        <v>50.72300074896601</v>
+        <v>76.60208276374459</v>
       </c>
       <c r="X45" t="n">
-        <v>24.84391873418743</v>
+        <v>53.80778732512763</v>
       </c>
       <c r="Y45" t="n">
-        <v>24.84391873418743</v>
+        <v>53.80778732512763</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.80778732512763</v>
+        <v>76.60208276374459</v>
       </c>
       <c r="C46" t="n">
-        <v>27.92870531034905</v>
+        <v>50.72300074896601</v>
       </c>
       <c r="D46" t="n">
-        <v>27.92870531034905</v>
+        <v>50.72300074896601</v>
       </c>
       <c r="E46" t="n">
-        <v>27.92870531034905</v>
+        <v>50.72300074896601</v>
       </c>
       <c r="F46" t="n">
-        <v>2.049623295570464</v>
+        <v>24.84391873418743</v>
       </c>
       <c r="G46" t="n">
         <v>2.049623295570464</v>
@@ -7837,19 +7837,19 @@
         <v>102.4811647785232</v>
       </c>
       <c r="U46" t="n">
-        <v>79.68686933990621</v>
+        <v>102.4811647785232</v>
       </c>
       <c r="V46" t="n">
-        <v>79.68686933990621</v>
+        <v>102.4811647785232</v>
       </c>
       <c r="W46" t="n">
-        <v>53.80778732512763</v>
+        <v>76.60208276374459</v>
       </c>
       <c r="X46" t="n">
-        <v>53.80778732512763</v>
+        <v>76.60208276374459</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.80778732512763</v>
+        <v>76.60208276374459</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7982,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M2" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>255.0333547912217</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>163.4617301689898</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,13 +8067,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>168.2165356390753</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q3" t="n">
         <v>165.6020652806523</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>245.7101422396114</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L5" t="n">
         <v>261.3867061646181</v>
@@ -8225,10 +8225,10 @@
         <v>255.9665244219036</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O5" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8298,16 +8298,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1395076939139</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>159.5946986089611</v>
@@ -8538,16 +8538,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>167.7543251166491</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
-        <v>155.926839997373</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
         <v>165.6020652806523</v>
@@ -8693,13 +8693,13 @@
         <v>236.0572258812072</v>
       </c>
       <c r="L11" t="n">
-        <v>191.6157029760316</v>
+        <v>243.1716026339628</v>
       </c>
       <c r="M11" t="n">
-        <v>232.775958860467</v>
+        <v>198.6746297941938</v>
       </c>
       <c r="N11" t="n">
-        <v>196.946547307958</v>
+        <v>179.4919767163002</v>
       </c>
       <c r="O11" t="n">
         <v>182.9591446759897</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.2251656501003</v>
+        <v>149.7459633710353</v>
       </c>
       <c r="L12" t="n">
-        <v>157.6078098318268</v>
+        <v>106.0519101738957</v>
       </c>
       <c r="M12" t="n">
-        <v>140.2818823131584</v>
+        <v>155.7610845922235</v>
       </c>
       <c r="N12" t="n">
-        <v>92.40899932371477</v>
+        <v>92.40899932371478</v>
       </c>
       <c r="O12" t="n">
         <v>106.9804183922171</v>
       </c>
       <c r="P12" t="n">
-        <v>105.3895670607278</v>
+        <v>156.9454667186589</v>
       </c>
       <c r="Q12" t="n">
         <v>172.429464968831</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>236.0572258812072</v>
+        <v>184.5013262232761</v>
       </c>
       <c r="L14" t="n">
-        <v>243.1716026339627</v>
+        <v>191.6157029760317</v>
       </c>
       <c r="M14" t="n">
-        <v>198.6746297941938</v>
+        <v>232.775958860467</v>
       </c>
       <c r="N14" t="n">
-        <v>179.4919767163002</v>
+        <v>231.0478763742313</v>
       </c>
       <c r="O14" t="n">
-        <v>182.9591446759897</v>
+        <v>200.4137152676476</v>
       </c>
       <c r="P14" t="n">
         <v>242.5567925466017</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.2251656501003</v>
+        <v>113.6692659921692</v>
       </c>
       <c r="L15" t="n">
         <v>157.6078098318268</v>
       </c>
       <c r="M15" t="n">
-        <v>140.2818823131584</v>
+        <v>155.7610845922235</v>
       </c>
       <c r="N15" t="n">
-        <v>92.40899932371477</v>
+        <v>143.9648989816459</v>
       </c>
       <c r="O15" t="n">
-        <v>106.9804183922171</v>
+        <v>143.0571157710833</v>
       </c>
       <c r="P15" t="n">
         <v>105.3895670607278</v>
       </c>
       <c r="Q15" t="n">
-        <v>172.429464968831</v>
+        <v>120.8735653108999</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>243.7575491949034</v>
+        <v>209.3450959543394</v>
       </c>
       <c r="L17" t="n">
         <v>250.8719259476589</v>
       </c>
       <c r="M17" t="n">
-        <v>206.0638289335992</v>
+        <v>240.4762821741632</v>
       </c>
       <c r="N17" t="n">
         <v>179.4919767163002</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>172.9254889637964</v>
+        <v>172.9254889637965</v>
       </c>
       <c r="L18" t="n">
-        <v>165.308133145523</v>
+        <v>106.0519101738957</v>
       </c>
       <c r="M18" t="n">
-        <v>163.4614079059196</v>
+        <v>163.4614079059197</v>
       </c>
       <c r="N18" t="n">
-        <v>135.8748958419863</v>
+        <v>92.40899932371478</v>
       </c>
       <c r="O18" t="n">
-        <v>106.9804183922171</v>
+        <v>150.4463149104887</v>
       </c>
       <c r="P18" t="n">
         <v>105.3895670607278</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.8735653108999</v>
+        <v>180.1297882825272</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>112.6948997141895</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9489,7 @@
         <v>420.5241091305603</v>
       </c>
       <c r="N21" t="n">
-        <v>399.927601589548</v>
+        <v>386.5314659633287</v>
       </c>
       <c r="O21" t="n">
         <v>106.9804183922171</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>112.6948997141895</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6692659921692</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>336.4274370369621</v>
       </c>
       <c r="M24" t="n">
-        <v>420.5241091305603</v>
+        <v>420.5241091305602</v>
       </c>
       <c r="N24" t="n">
-        <v>310.7238791645988</v>
+        <v>408.7279235199827</v>
       </c>
       <c r="O24" t="n">
-        <v>106.9804183922171</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>105.3895670607278</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>112.6948997141895</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>106.0519101738957</v>
+        <v>274.8351884415021</v>
       </c>
       <c r="M27" t="n">
-        <v>389.6303214451764</v>
+        <v>420.5241091305603</v>
       </c>
       <c r="N27" t="n">
         <v>408.7279235199827</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>105.3895670607278</v>
       </c>
       <c r="Q27" t="n">
         <v>120.8735653108999</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,25 +10191,25 @@
         <v>112.6948997141895</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6692659921691</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>420.5241091305603</v>
+        <v>275.6378573360225</v>
       </c>
       <c r="N30" t="n">
-        <v>236.9151798592955</v>
+        <v>408.7279235199827</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>105.3895670607278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>120.8735653108999</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6692659921691</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>420.5241091305603</v>
       </c>
       <c r="N33" t="n">
-        <v>408.7279235199827</v>
+        <v>250.4455360992256</v>
       </c>
       <c r="O33" t="n">
-        <v>208.6534399898231</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>105.3895670607278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>120.8735653108999</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>221.450882090218</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>278.1056507817988</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>106.0519101738957</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>210.2715413763618</v>
+        <v>394.58850066726</v>
       </c>
       <c r="N36" t="n">
-        <v>382.7923150566825</v>
+        <v>382.7923150566824</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>247.0338488604262</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>105.3895670607278</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>120.8735653108999</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>314.9666840695039</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>278.1056507817985</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>106.0519101738957</v>
+        <v>301.3219890409142</v>
       </c>
       <c r="M39" t="n">
-        <v>299.475263801311</v>
+        <v>104.2051849342923</v>
       </c>
       <c r="N39" t="n">
         <v>382.7923150566825</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>166.7097308934451</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>316.3288339313918</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>191.0008928886706</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>386.8881773535638</v>
+        <v>139.9653705244507</v>
       </c>
       <c r="N42" t="n">
         <v>375.0919917429862</v>
       </c>
       <c r="O42" t="n">
-        <v>231.9443264073246</v>
+        <v>389.6634108114886</v>
       </c>
       <c r="P42" t="n">
         <v>105.3895670607278</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.8735653108999</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>157.300287289882</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>210.1216174179069</v>
+        <v>184.5013262232761</v>
       </c>
       <c r="L44" t="n">
-        <v>217.2359941706624</v>
+        <v>191.6157029760316</v>
       </c>
       <c r="M44" t="n">
         <v>181.2200592025359</v>
       </c>
       <c r="N44" t="n">
-        <v>179.4919767163001</v>
+        <v>197.679133411543</v>
       </c>
       <c r="O44" t="n">
-        <v>187.3223380587935</v>
+        <v>208.5794358706204</v>
       </c>
       <c r="P44" t="n">
         <v>216.6211840833014</v>
@@ -11385,13 +11385,13 @@
         <v>129.8254761289231</v>
       </c>
       <c r="N45" t="n">
-        <v>92.40899932371474</v>
+        <v>118.0292905183455</v>
       </c>
       <c r="O45" t="n">
-        <v>132.6007095868479</v>
+        <v>131.5655463062567</v>
       </c>
       <c r="P45" t="n">
-        <v>129.9746949747674</v>
+        <v>105.3895670607278</v>
       </c>
       <c r="Q45" t="n">
         <v>120.8735653108999</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>342.7065392867767</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22595,10 +22595,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>347.1647481942382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>143.9668311656365</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22635,16 +22635,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>122.502859909153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>63.77634165678424</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22677,22 +22677,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="4">
@@ -22729,7 +22729,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>60.54175205706355</v>
@@ -22753,10 +22753,10 @@
         <v>151.6731001825387</v>
       </c>
       <c r="S4" t="n">
-        <v>198.3963068423414</v>
+        <v>200.8208869191</v>
       </c>
       <c r="T4" t="n">
-        <v>205.3792369440507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>339.6526005763767</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22829,16 +22829,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22847,10 @@
         <v>326.6746162331822</v>
       </c>
       <c r="X5" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,10 +22863,10 @@
         <v>140.9128924552365</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>124.8787130804079</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22878,13 +22878,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>90.41568307852349</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22917,7 +22917,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>360.1674891792497</v>
       </c>
       <c r="C8" t="n">
         <v>339.6526005763767</v>
@@ -23027,7 +23027,7 @@
         <v>329.0627504260521</v>
       </c>
       <c r="E8" t="n">
-        <v>359.3640175880309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140.9128924552365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>150.1421465040849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23157,16 +23157,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y9" t="n">
-        <v>180.0624045826735</v>
+        <v>183.1163432930735</v>
       </c>
     </row>
     <row r="10">
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>313.7169921130765</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23321,7 +23321,7 @@
         <v>297.6850690594819</v>
       </c>
       <c r="X11" t="n">
-        <v>318.1752010205379</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>121.1525993303846</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,10 +23352,10 @@
         <v>137.1938239388866</v>
       </c>
       <c r="H12" t="n">
-        <v>110.7897228331561</v>
+        <v>65.37928641445041</v>
       </c>
       <c r="I12" t="n">
-        <v>84.24272139990653</v>
+        <v>32.68682174197542</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>39.30782360202986</v>
       </c>
       <c r="S12" t="n">
-        <v>123.4922486982355</v>
+        <v>168.9026851169412</v>
       </c>
       <c r="T12" t="n">
         <v>199.5613599529189</v>
@@ -23400,10 +23400,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>154.2170855455464</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>154.1267961193733</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>130.1439778111529</v>
+        <v>122.4550451690011</v>
       </c>
       <c r="H13" t="n">
         <v>109.5554835786408</v>
@@ -23437,10 +23437,10 @@
         <v>100.1205150361674</v>
       </c>
       <c r="J13" t="n">
-        <v>32.93058806657609</v>
+        <v>32.93058806657608</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>7.688932642151833</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.65331628445287</v>
+        <v>75.65331628445288</v>
       </c>
       <c r="R13" t="n">
         <v>171.6505552486301</v>
@@ -23513,7 +23513,7 @@
         <v>285.0536490370031</v>
       </c>
       <c r="I14" t="n">
-        <v>148.1339352309991</v>
+        <v>148.1339352309992</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23580,19 +23580,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>106.0891807974699</v>
       </c>
       <c r="F15" t="n">
-        <v>99.65877597467816</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>85.63792428095547</v>
+        <v>137.1938239388866</v>
       </c>
       <c r="H15" t="n">
-        <v>59.23382317522501</v>
+        <v>110.7897228331561</v>
       </c>
       <c r="I15" t="n">
-        <v>32.68682174197543</v>
+        <v>84.24272139990653</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>90.86372325996096</v>
+        <v>39.30782360202986</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9026851169412</v>
+        <v>117.3467854590101</v>
       </c>
       <c r="T15" t="n">
-        <v>199.5613599529189</v>
+        <v>154.1509235342132</v>
       </c>
       <c r="U15" t="n">
         <v>225.9315338425324</v>
@@ -23662,22 +23662,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>93.86514836500015</v>
       </c>
       <c r="G16" t="n">
-        <v>130.1439778111529</v>
+        <v>116.3095819297757</v>
       </c>
       <c r="H16" t="n">
         <v>109.5554835786408</v>
       </c>
       <c r="I16" t="n">
-        <v>100.1205150361674</v>
+        <v>106.2659782753928</v>
       </c>
       <c r="J16" t="n">
-        <v>32.93058806657609</v>
+        <v>84.48648772450719</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7.688932642151833</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.65331628445287</v>
+        <v>75.65331628445288</v>
       </c>
       <c r="R16" t="n">
         <v>171.6505552486301</v>
@@ -23750,7 +23750,7 @@
         <v>277.3533257233069</v>
       </c>
       <c r="I17" t="n">
-        <v>140.4336119173029</v>
+        <v>140.433611917303</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>98.38885748377365</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>85.81298942175658</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>77.93760096725927</v>
+        <v>85.00094274547727</v>
       </c>
       <c r="H18" t="n">
-        <v>58.59684163974678</v>
+        <v>51.53349986152882</v>
       </c>
       <c r="I18" t="n">
-        <v>84.24272139990653</v>
+        <v>24.98649842827925</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>90.86372325996096</v>
+        <v>31.60750028833368</v>
       </c>
       <c r="S18" t="n">
         <v>168.9026851169412</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.57575721031</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>107.9905981270005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>109.0303224094448</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23914,7 +23914,7 @@
         <v>84.48648772450719</v>
       </c>
       <c r="K19" t="n">
-        <v>7.688932642151832</v>
+        <v>7.688932642151833</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,22 +23932,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.65331628445287</v>
+        <v>75.65331628445288</v>
       </c>
       <c r="R19" t="n">
         <v>171.6505552486301</v>
       </c>
       <c r="S19" t="n">
-        <v>221.8295141594126</v>
+        <v>162.5732911877853</v>
       </c>
       <c r="T19" t="n">
-        <v>227.409371680523</v>
+        <v>168.1531487088957</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3121840235408</v>
+        <v>227.0559610519135</v>
       </c>
       <c r="V19" t="n">
-        <v>192.8814203522007</v>
+        <v>214.7340030867036</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.4149174672126</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>48.95396757473958</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>316.5608741933937</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23984,7 @@
         <v>415.0229617630703</v>
       </c>
       <c r="H20" t="n">
-        <v>336.6095486949342</v>
+        <v>20.2906244986662</v>
       </c>
       <c r="I20" t="n">
         <v>199.6898348889302</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3232708476713</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>224.6344376942489</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,10 +24063,10 @@
         <v>137.1938239388866</v>
       </c>
       <c r="H21" t="n">
-        <v>58.23035152228037</v>
+        <v>110.7897228331561</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>84.24272139990653</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>90.86372325996096</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>57.09365340533822</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24108,10 +24108,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8654815877068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>161.1113832365719</v>
+        <v>109.8052272400245</v>
       </c>
       <c r="I22" t="n">
         <v>151.6764146940985</v>
@@ -24151,7 +24151,7 @@
         <v>84.48648772450719</v>
       </c>
       <c r="K22" t="n">
-        <v>7.688932642151832</v>
+        <v>7.688932642151833</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.65331628445287</v>
+        <v>75.65331628445288</v>
       </c>
       <c r="R22" t="n">
         <v>171.6505552486301</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>67.35136075233686</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.4149174672126</v>
+        <v>66.41491746721266</v>
       </c>
       <c r="C23" t="n">
-        <v>48.95396757473958</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>65.61144587599381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.0229617630703</v>
+        <v>222.4248436597302</v>
       </c>
       <c r="H23" t="n">
-        <v>57.99584026286158</v>
+        <v>20.29062449866626</v>
       </c>
       <c r="I23" t="n">
-        <v>199.6898348889302</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>132.2946543555133</v>
       </c>
       <c r="S23" t="n">
-        <v>202.6446796360702</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>221.871131209468</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.1938239388866</v>
       </c>
       <c r="H24" t="n">
         <v>110.7897228331561</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>84.24272139990653</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>90.86372325996096</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9026851169412</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.5613599529189</v>
+        <v>147.9573766652994</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9315338425324</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>56.35049925891039</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24388,7 +24388,7 @@
         <v>84.48648772450719</v>
       </c>
       <c r="K25" t="n">
-        <v>7.688932642151832</v>
+        <v>7.688932642151833</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.65331628445287</v>
+        <v>75.65331628445288</v>
       </c>
       <c r="R25" t="n">
         <v>171.6505552486301</v>
@@ -24415,7 +24415,7 @@
         <v>221.8295141594126</v>
       </c>
       <c r="T25" t="n">
-        <v>227.409371680523</v>
+        <v>8.237734096268866</v>
       </c>
       <c r="U25" t="n">
         <v>286.3121840235408</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>6.53801780478301</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>66.4149174672126</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>146.8827471049542</v>
       </c>
       <c r="G26" t="n">
-        <v>415.0229617630703</v>
+        <v>98.70403756680236</v>
       </c>
       <c r="H26" t="n">
         <v>336.6095486949342</v>
       </c>
       <c r="I26" t="n">
-        <v>142.9472576663255</v>
+        <v>199.6898348889302</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>132.2946543555133</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>202.6446796360702</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.871131209468</v>
       </c>
       <c r="U26" t="n">
         <v>251.3232708476713</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>53.41217648220106</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>69.91901445978561</v>
@@ -24519,25 +24519,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>85.61449500248628</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.1938239388866</v>
       </c>
       <c r="H27" t="n">
-        <v>22.7156764728512</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,22 +24567,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>90.86372325996096</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.5613599529189</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>96.69065653258599</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,16 +24616,16 @@
         <v>167.8654815877068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>161.1113832365719</v>
       </c>
       <c r="I28" t="n">
-        <v>93.61616034641622</v>
+        <v>151.6764146940985</v>
       </c>
       <c r="J28" t="n">
         <v>84.48648772450719</v>
       </c>
       <c r="K28" t="n">
-        <v>7.688932642151823</v>
+        <v>7.688932642151833</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.65331628445287</v>
+        <v>75.65331628445288</v>
       </c>
       <c r="R28" t="n">
         <v>171.6505552486301</v>
@@ -24683,22 +24683,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>38.36411742441499</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>90.55712154544347</v>
       </c>
       <c r="G29" t="n">
         <v>415.0229617630703</v>
       </c>
       <c r="H29" t="n">
-        <v>276.3060849471073</v>
+        <v>336.6095486949342</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>96.57201411304422</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24731,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.871131209468</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3232708476713</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>69.91901445978561</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,22 +24762,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1938239388866</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.7897228331561</v>
       </c>
       <c r="I30" t="n">
-        <v>84.24272139990653</v>
+        <v>26.41836154766814</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>90.86372325996095</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>168.9026851169412</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>33.05665415680252</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24883,7 @@
         <v>75.65331628445287</v>
       </c>
       <c r="R31" t="n">
-        <v>98.91288031094501</v>
+        <v>171.6505552486301</v>
       </c>
       <c r="S31" t="n">
         <v>221.8295141594126</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>67.3513607523368</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>48.95396757473958</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>98.70403756680236</v>
+        <v>415.0229617630703</v>
       </c>
       <c r="H32" t="n">
         <v>57.99584026286158</v>
@@ -24974,13 +24974,13 @@
         <v>251.3232708476713</v>
       </c>
       <c r="V32" t="n">
-        <v>11.43333427386693</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>53.41217648220106</v>
       </c>
       <c r="Y32" t="n">
         <v>69.91901445978561</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,13 +25005,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>25.20335820260215</v>
+        <v>137.1938239388866</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.613373589803572</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>90.86372325996095</v>
       </c>
       <c r="S33" t="n">
         <v>168.9026851169412</v>
@@ -25050,7 +25050,7 @@
         <v>199.5613599529189</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9315338425324</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25129,7 +25129,7 @@
         <v>227.409371680523</v>
       </c>
       <c r="U34" t="n">
-        <v>67.14054643928668</v>
+        <v>286.3121840235408</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>6.538017804782953</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,10 +25160,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>91.54705433929405</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>151.1064212441135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.0229617630703</v>
@@ -25172,7 +25172,7 @@
         <v>336.6095486949342</v>
       </c>
       <c r="I35" t="n">
-        <v>199.6898348889302</v>
+        <v>38.99266061860644</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>132.2946543555133</v>
       </c>
       <c r="S35" t="n">
-        <v>202.6446796360702</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.871131209468</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3232708476713</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>58.85765298444534</v>
       </c>
       <c r="X35" t="n">
-        <v>79.3477849455013</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>95.85462292308586</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25245,10 +25245,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.1938239388866</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.7897228331561</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.9026851169412</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.5613599529189</v>
       </c>
       <c r="U36" t="n">
-        <v>96.33898385127901</v>
+        <v>225.9315338425324</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>110.6713079043606</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>145.8469784144098</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>75.65331628445287</v>
       </c>
       <c r="R37" t="n">
         <v>171.6505552486301</v>
@@ -25369,7 +25369,7 @@
         <v>286.3121840235408</v>
       </c>
       <c r="V37" t="n">
-        <v>108.6193220240267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,19 +25394,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>64.29972588771523</v>
+        <v>64.29972588771528</v>
       </c>
       <c r="E38" t="n">
-        <v>328.805425210734</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>116.4927300087437</v>
+        <v>116.4927300087438</v>
       </c>
       <c r="G38" t="n">
-        <v>124.6396460301026</v>
+        <v>124.6396460301027</v>
       </c>
       <c r="H38" t="n">
-        <v>336.6095486949342</v>
+        <v>80.83992419733639</v>
       </c>
       <c r="I38" t="n">
         <v>199.6898348889302</v>
@@ -25439,7 +25439,7 @@
         <v>132.2946543555133</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>202.6446796360702</v>
       </c>
       <c r="T38" t="n">
         <v>221.871131209468</v>
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>136.1966537512384</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>42.93002812773597</v>
+        <v>137.1938239388866</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.7897228331561</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>84.24272139990653</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,10 +25521,10 @@
         <v>168.9026851169412</v>
       </c>
       <c r="T39" t="n">
-        <v>199.5613599529189</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9315338425324</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>94.50914616094278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>96.69065653258582</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25643,7 +25643,7 @@
         <v>415.0229617630703</v>
       </c>
       <c r="H41" t="n">
-        <v>53.92655627566268</v>
+        <v>336.6095486949342</v>
       </c>
       <c r="I41" t="n">
         <v>199.6898348889302</v>
@@ -25676,13 +25676,13 @@
         <v>132.2946543555133</v>
       </c>
       <c r="S41" t="n">
-        <v>202.6446796360702</v>
+        <v>144.1689095510439</v>
       </c>
       <c r="T41" t="n">
-        <v>221.871131209468</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.336091124777226</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>45.0692660508634</v>
@@ -25707,25 +25707,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.7425630091217</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>118.6410549483657</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.1938239388866</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.7897228331561</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>84.24272139990653</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25837,10 +25837,10 @@
         <v>221.8295141594126</v>
       </c>
       <c r="T43" t="n">
-        <v>8.237734096268838</v>
+        <v>227.409371680523</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3121840235408</v>
+        <v>67.14054643928662</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25865,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>339.6526005763768</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>329.0627504260522</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>109.7283018712825</v>
+        <v>132.2946543555133</v>
       </c>
       <c r="S44" t="n">
         <v>202.6446796360702</v>
@@ -25919,16 +25919,16 @@
         <v>221.871131209468</v>
       </c>
       <c r="U44" t="n">
-        <v>225.7029796530405</v>
+        <v>228.7569183634405</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,13 +25944,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,7 +25959,7 @@
         <v>137.1938239388866</v>
       </c>
       <c r="H45" t="n">
-        <v>88.22337034892531</v>
+        <v>110.7897228331561</v>
       </c>
       <c r="I45" t="n">
         <v>84.24272139990653</v>
@@ -25992,7 +25992,7 @@
         <v>90.86372325996095</v>
       </c>
       <c r="S45" t="n">
-        <v>143.2823939223104</v>
+        <v>168.9026851169412</v>
       </c>
       <c r="T45" t="n">
         <v>199.5613599529189</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>180.1526940088467</v>
+        <v>183.2066327192467</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,7 +26035,7 @@
         <v>119.8007568283005</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8654815877068</v>
+        <v>145.299129103476</v>
       </c>
       <c r="H46" t="n">
         <v>161.1113832365719</v>
@@ -26077,7 +26077,7 @@
         <v>227.409371680523</v>
       </c>
       <c r="U46" t="n">
-        <v>263.74583153931</v>
+        <v>286.3121840235408</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>338624.8162244065</v>
+        <v>338624.8162244066</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>338624.8162244065</v>
+        <v>338624.8162244066</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>338624.8162244065</v>
+        <v>338624.8162244066</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366934.8691303786</v>
+        <v>366934.8691303788</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>547152.6245043816</v>
+        <v>547152.6245043817</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>547152.6245043818</v>
+        <v>547152.6245043816</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>547152.6245043816</v>
+        <v>547152.6245043817</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528984.3959707124</v>
+        <v>528984.3959707123</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>528984.3959707124</v>
+        <v>528984.3959707122</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>339262.39826239</v>
+        <v>339262.3982623901</v>
       </c>
     </row>
   </sheetData>
@@ -26335,7 +26335,7 @@
         <v>188478.5280729264</v>
       </c>
       <c r="J2" t="n">
-        <v>188478.5280729264</v>
+        <v>188478.5280729263</v>
       </c>
       <c r="K2" t="n">
         <v>188478.5280729264</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8585.948846018269</v>
+        <v>8585.948846018291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>63656.00588960116</v>
+        <v>63656.00588960115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2110.543115434426</v>
+        <v>2110.543115434419</v>
       </c>
       <c r="H3" t="n">
         <v>69357.83035471909</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6703.395469327995</v>
+        <v>6703.395469328009</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51456.63121076197</v>
+        <v>51733.05031268599</v>
       </c>
       <c r="C4" t="n">
-        <v>51456.63121076197</v>
+        <v>51733.050312686</v>
       </c>
       <c r="D4" t="n">
-        <v>51456.63121076197</v>
+        <v>51733.05031268599</v>
       </c>
       <c r="E4" t="n">
-        <v>46866.84711505562</v>
+        <v>47118.47890865512</v>
       </c>
       <c r="F4" t="n">
-        <v>46866.84711505562</v>
+        <v>47118.47890865512</v>
       </c>
       <c r="G4" t="n">
-        <v>47788.18139879833</v>
+        <v>48044.73166592291</v>
       </c>
       <c r="H4" t="n">
-        <v>75787.53859125651</v>
+        <v>76193.56131316828</v>
       </c>
       <c r="I4" t="n">
-        <v>75787.53859125651</v>
+        <v>76193.56131316828</v>
       </c>
       <c r="J4" t="n">
-        <v>75787.53859125651</v>
+        <v>76193.56131316828</v>
       </c>
       <c r="K4" t="n">
-        <v>75787.53859125651</v>
+        <v>76193.56131316828</v>
       </c>
       <c r="L4" t="n">
-        <v>75787.53859125651</v>
+        <v>76193.56131316826</v>
       </c>
       <c r="M4" t="n">
-        <v>72964.84934394719</v>
+        <v>73355.80335238828</v>
       </c>
       <c r="N4" t="n">
-        <v>72964.84934394721</v>
+        <v>73355.80335238828</v>
       </c>
       <c r="O4" t="n">
-        <v>72126.78842669007</v>
+        <v>72513.26851018699</v>
       </c>
       <c r="P4" t="n">
-        <v>43488.87473712809</v>
+        <v>43722.47348018069</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>4651.75265871125</v>
       </c>
       <c r="G5" t="n">
-        <v>5119.932316183978</v>
+        <v>5119.932316183977</v>
       </c>
       <c r="H5" t="n">
         <v>20749.34455064213</v>
@@ -26500,10 +26500,10 @@
         <v>20749.34455064213</v>
       </c>
       <c r="M5" t="n">
-        <v>19172.45955607348</v>
+        <v>19172.45955607347</v>
       </c>
       <c r="N5" t="n">
-        <v>19172.45955607348</v>
+        <v>19172.45955607347</v>
       </c>
       <c r="O5" t="n">
         <v>18704.27989860075</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19537.69927300559</v>
+        <v>19261.28017108157</v>
       </c>
       <c r="C6" t="n">
-        <v>28123.64811902389</v>
+        <v>27847.22901709986</v>
       </c>
       <c r="D6" t="n">
-        <v>28123.64811902386</v>
+        <v>27847.22901709985</v>
       </c>
       <c r="E6" t="n">
-        <v>10397.76729992631</v>
+        <v>10146.13550632683</v>
       </c>
       <c r="F6" t="n">
-        <v>74053.77318952748</v>
+        <v>73802.14139592796</v>
       </c>
       <c r="G6" t="n">
-        <v>72557.734515655</v>
+        <v>72301.18424853044</v>
       </c>
       <c r="H6" t="n">
-        <v>22583.81457630872</v>
+        <v>22177.79185439696</v>
       </c>
       <c r="I6" t="n">
-        <v>91941.64493102775</v>
+        <v>91535.62220911599</v>
       </c>
       <c r="J6" t="n">
-        <v>85238.24946169983</v>
+        <v>84832.22673978789</v>
       </c>
       <c r="K6" t="n">
-        <v>91941.64493102775</v>
+        <v>91535.62220911599</v>
       </c>
       <c r="L6" t="n">
-        <v>91941.64493102775</v>
+        <v>91535.62220911603</v>
       </c>
       <c r="M6" t="n">
-        <v>90201.51370411881</v>
+        <v>89810.55969567776</v>
       </c>
       <c r="N6" t="n">
-        <v>90201.51370411886</v>
+        <v>89810.55969567776</v>
       </c>
       <c r="O6" t="n">
-        <v>89684.86598118531</v>
+        <v>89298.38589768842</v>
       </c>
       <c r="P6" t="n">
-        <v>71661.11418134422</v>
+        <v>71427.51543829159</v>
       </c>
     </row>
   </sheetData>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>69.59421832610271</v>
+        <v>69.59421832610269</v>
       </c>
       <c r="F3" t="n">
-        <v>69.59421832610271</v>
+        <v>69.59421832610269</v>
       </c>
       <c r="G3" t="n">
-        <v>69.59421832610271</v>
+        <v>69.59421832610269</v>
       </c>
       <c r="H3" t="n">
-        <v>69.59421832610271</v>
+        <v>69.59421832610269</v>
       </c>
       <c r="I3" t="n">
-        <v>69.59421832610271</v>
+        <v>69.59421832610269</v>
       </c>
       <c r="J3" t="n">
-        <v>69.59421832610275</v>
+        <v>69.59421832610269</v>
       </c>
       <c r="K3" t="n">
         <v>69.59421832610275</v>
@@ -26796,19 +26796,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="F4" t="n">
         <v>51.5558996579311</v>
       </c>
       <c r="G4" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="H4" t="n">
         <v>316.318924196268</v>
       </c>
       <c r="I4" t="n">
-        <v>316.318924196268</v>
+        <v>316.3189241962679</v>
       </c>
       <c r="J4" t="n">
         <v>316.318924196268</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>69.59421832610271</v>
+        <v>69.59421832610269</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.93560846330027</v>
+        <v>25.93560846330028</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.700323313696211</v>
+        <v>7.700323313696184</v>
       </c>
       <c r="H4" t="n">
         <v>257.0627012246407</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463085</v>
+        <v>25.62029119463091</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>25.93560846330027</v>
+        <v>25.93560846330028</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.700323313696211</v>
+        <v>7.700323313696184</v>
       </c>
       <c r="P4" t="n">
         <v>257.0627012246407</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2797757520647343</v>
+        <v>0.2797757520647342</v>
       </c>
       <c r="H11" t="n">
-        <v>2.865253420832961</v>
+        <v>2.86525342083296</v>
       </c>
       <c r="I11" t="n">
         <v>10.78605468147568</v>
@@ -31765,34 +31765,34 @@
         <v>35.58852482170447</v>
       </c>
       <c r="L11" t="n">
-        <v>44.1507119939556</v>
+        <v>44.15071199395558</v>
       </c>
       <c r="M11" t="n">
-        <v>49.12617402473681</v>
+        <v>49.1261740247368</v>
       </c>
       <c r="N11" t="n">
-        <v>49.92108688029074</v>
+        <v>49.92108688029073</v>
       </c>
       <c r="O11" t="n">
-        <v>47.13906674569704</v>
+        <v>47.13906674569702</v>
       </c>
       <c r="P11" t="n">
-        <v>40.2321028665989</v>
+        <v>40.23210286659889</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.2126337457806</v>
+        <v>30.21263374578059</v>
       </c>
       <c r="R11" t="n">
         <v>17.57446358563638</v>
       </c>
       <c r="S11" t="n">
-        <v>6.375389950175139</v>
+        <v>6.375389950175138</v>
       </c>
       <c r="T11" t="n">
         <v>1.224718354663375</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02238206016517874</v>
+        <v>0.02238206016517873</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,40 +31838,40 @@
         <v>5.15391145150855</v>
       </c>
       <c r="J12" t="n">
-        <v>14.14272695247716</v>
+        <v>14.14272695247715</v>
       </c>
       <c r="K12" t="n">
-        <v>24.17217298218985</v>
+        <v>24.17217298218984</v>
       </c>
       <c r="L12" t="n">
-        <v>32.50246960597844</v>
+        <v>32.50246960597843</v>
       </c>
       <c r="M12" t="n">
-        <v>37.92884898772597</v>
+        <v>37.92884898772596</v>
       </c>
       <c r="N12" t="n">
-        <v>38.93271275961853</v>
+        <v>38.93271275961852</v>
       </c>
       <c r="O12" t="n">
-        <v>35.6158260522273</v>
+        <v>35.61582605222729</v>
       </c>
       <c r="P12" t="n">
-        <v>28.58484035360245</v>
+        <v>28.58484035360244</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.10820877512164</v>
+        <v>19.10820877512163</v>
       </c>
       <c r="R12" t="n">
-        <v>9.294110892682173</v>
+        <v>9.294110892682172</v>
       </c>
       <c r="S12" t="n">
-        <v>2.780485986896649</v>
+        <v>2.780485986896648</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6033687419027204</v>
+        <v>0.6033687419027203</v>
       </c>
       <c r="U12" t="n">
-        <v>0.009848238442373029</v>
+        <v>0.009848238442373026</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>1.11578927086768</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7740602331598</v>
+        <v>3.774060233159799</v>
       </c>
       <c r="J13" t="n">
-        <v>8.872692392165584</v>
+        <v>8.872692392165582</v>
       </c>
       <c r="K13" t="n">
         <v>14.58055918373102</v>
@@ -31941,16 +31941,16 @@
         <v>10.50872696724151</v>
       </c>
       <c r="R13" t="n">
-        <v>5.642836128539408</v>
+        <v>5.642836128539407</v>
       </c>
       <c r="S13" t="n">
-        <v>2.187083877559653</v>
+        <v>2.187083877559652</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5362177477584961</v>
+        <v>0.536217747758496</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00684533295010847</v>
+        <v>0.006845332950108468</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2797757520647343</v>
+        <v>0.2797757520647342</v>
       </c>
       <c r="H14" t="n">
-        <v>2.865253420832961</v>
+        <v>2.86525342083296</v>
       </c>
       <c r="I14" t="n">
         <v>10.78605468147568</v>
@@ -32002,34 +32002,34 @@
         <v>35.58852482170447</v>
       </c>
       <c r="L14" t="n">
-        <v>44.1507119939556</v>
+        <v>44.15071199395558</v>
       </c>
       <c r="M14" t="n">
-        <v>49.12617402473681</v>
+        <v>49.1261740247368</v>
       </c>
       <c r="N14" t="n">
-        <v>49.92108688029074</v>
+        <v>49.92108688029073</v>
       </c>
       <c r="O14" t="n">
-        <v>47.13906674569704</v>
+        <v>47.13906674569702</v>
       </c>
       <c r="P14" t="n">
-        <v>40.2321028665989</v>
+        <v>40.23210286659889</v>
       </c>
       <c r="Q14" t="n">
-        <v>30.2126337457806</v>
+        <v>30.21263374578059</v>
       </c>
       <c r="R14" t="n">
         <v>17.57446358563638</v>
       </c>
       <c r="S14" t="n">
-        <v>6.375389950175139</v>
+        <v>6.375389950175138</v>
       </c>
       <c r="T14" t="n">
         <v>1.224718354663375</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02238206016517874</v>
+        <v>0.02238206016517873</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,40 +32075,40 @@
         <v>5.15391145150855</v>
       </c>
       <c r="J15" t="n">
-        <v>14.14272695247716</v>
+        <v>14.14272695247715</v>
       </c>
       <c r="K15" t="n">
-        <v>24.17217298218985</v>
+        <v>24.17217298218984</v>
       </c>
       <c r="L15" t="n">
-        <v>32.50246960597844</v>
+        <v>32.50246960597843</v>
       </c>
       <c r="M15" t="n">
-        <v>37.92884898772597</v>
+        <v>37.92884898772596</v>
       </c>
       <c r="N15" t="n">
-        <v>38.93271275961853</v>
+        <v>38.93271275961852</v>
       </c>
       <c r="O15" t="n">
-        <v>35.6158260522273</v>
+        <v>35.61582605222729</v>
       </c>
       <c r="P15" t="n">
-        <v>28.58484035360245</v>
+        <v>28.58484035360244</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.10820877512164</v>
+        <v>19.10820877512163</v>
       </c>
       <c r="R15" t="n">
-        <v>9.294110892682173</v>
+        <v>9.294110892682172</v>
       </c>
       <c r="S15" t="n">
-        <v>2.780485986896649</v>
+        <v>2.780485986896648</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6033687419027204</v>
+        <v>0.6033687419027203</v>
       </c>
       <c r="U15" t="n">
-        <v>0.009848238442373029</v>
+        <v>0.009848238442373026</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>1.11578927086768</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7740602331598</v>
+        <v>3.774060233159799</v>
       </c>
       <c r="J16" t="n">
-        <v>8.872692392165584</v>
+        <v>8.872692392165582</v>
       </c>
       <c r="K16" t="n">
         <v>14.58055918373102</v>
@@ -32178,16 +32178,16 @@
         <v>10.50872696724151</v>
       </c>
       <c r="R16" t="n">
-        <v>5.642836128539408</v>
+        <v>5.642836128539407</v>
       </c>
       <c r="S16" t="n">
-        <v>2.187083877559653</v>
+        <v>2.187083877559652</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5362177477584961</v>
+        <v>0.536217747758496</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00684533295010847</v>
+        <v>0.006845332950108468</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2797757520647343</v>
+        <v>0.2797757520647342</v>
       </c>
       <c r="H17" t="n">
-        <v>2.865253420832961</v>
+        <v>2.86525342083296</v>
       </c>
       <c r="I17" t="n">
         <v>10.78605468147568</v>
@@ -32239,34 +32239,34 @@
         <v>35.58852482170447</v>
       </c>
       <c r="L17" t="n">
-        <v>44.1507119939556</v>
+        <v>44.15071199395558</v>
       </c>
       <c r="M17" t="n">
-        <v>49.12617402473681</v>
+        <v>49.1261740247368</v>
       </c>
       <c r="N17" t="n">
-        <v>49.92108688029074</v>
+        <v>49.92108688029073</v>
       </c>
       <c r="O17" t="n">
-        <v>47.13906674569704</v>
+        <v>47.13906674569702</v>
       </c>
       <c r="P17" t="n">
-        <v>40.2321028665989</v>
+        <v>40.23210286659889</v>
       </c>
       <c r="Q17" t="n">
-        <v>30.2126337457806</v>
+        <v>30.21263374578059</v>
       </c>
       <c r="R17" t="n">
         <v>17.57446358563638</v>
       </c>
       <c r="S17" t="n">
-        <v>6.375389950175139</v>
+        <v>6.375389950175138</v>
       </c>
       <c r="T17" t="n">
         <v>1.224718354663375</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02238206016517874</v>
+        <v>0.02238206016517873</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,40 +32312,40 @@
         <v>5.15391145150855</v>
       </c>
       <c r="J18" t="n">
-        <v>14.14272695247716</v>
+        <v>14.14272695247715</v>
       </c>
       <c r="K18" t="n">
-        <v>24.17217298218985</v>
+        <v>24.17217298218984</v>
       </c>
       <c r="L18" t="n">
-        <v>32.50246960597844</v>
+        <v>32.50246960597843</v>
       </c>
       <c r="M18" t="n">
-        <v>37.92884898772597</v>
+        <v>37.92884898772596</v>
       </c>
       <c r="N18" t="n">
-        <v>38.93271275961853</v>
+        <v>38.93271275961852</v>
       </c>
       <c r="O18" t="n">
-        <v>35.6158260522273</v>
+        <v>35.61582605222729</v>
       </c>
       <c r="P18" t="n">
-        <v>28.58484035360245</v>
+        <v>28.58484035360244</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.10820877512164</v>
+        <v>19.10820877512163</v>
       </c>
       <c r="R18" t="n">
-        <v>9.294110892682173</v>
+        <v>9.294110892682172</v>
       </c>
       <c r="S18" t="n">
-        <v>2.780485986896649</v>
+        <v>2.780485986896648</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6033687419027204</v>
+        <v>0.6033687419027203</v>
       </c>
       <c r="U18" t="n">
-        <v>0.009848238442373029</v>
+        <v>0.009848238442373026</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>1.11578927086768</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7740602331598</v>
+        <v>3.774060233159799</v>
       </c>
       <c r="J19" t="n">
-        <v>8.872692392165584</v>
+        <v>8.872692392165582</v>
       </c>
       <c r="K19" t="n">
         <v>14.58055918373102</v>
@@ -32415,16 +32415,16 @@
         <v>10.50872696724151</v>
       </c>
       <c r="R19" t="n">
-        <v>5.642836128539408</v>
+        <v>5.642836128539407</v>
       </c>
       <c r="S19" t="n">
-        <v>2.187083877559653</v>
+        <v>2.187083877559652</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5362177477584961</v>
+        <v>0.536217747758496</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00684533295010847</v>
+        <v>0.006845332950108468</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2797757520647343</v>
+        <v>0.2797757520647342</v>
       </c>
       <c r="H20" t="n">
-        <v>2.865253420832961</v>
+        <v>2.86525342083296</v>
       </c>
       <c r="I20" t="n">
         <v>10.78605468147568</v>
@@ -32476,34 +32476,34 @@
         <v>35.58852482170447</v>
       </c>
       <c r="L20" t="n">
-        <v>44.1507119939556</v>
+        <v>44.15071199395558</v>
       </c>
       <c r="M20" t="n">
-        <v>49.12617402473681</v>
+        <v>49.1261740247368</v>
       </c>
       <c r="N20" t="n">
-        <v>49.92108688029074</v>
+        <v>49.92108688029073</v>
       </c>
       <c r="O20" t="n">
-        <v>47.13906674569704</v>
+        <v>47.13906674569702</v>
       </c>
       <c r="P20" t="n">
-        <v>40.2321028665989</v>
+        <v>40.23210286659889</v>
       </c>
       <c r="Q20" t="n">
-        <v>30.2126337457806</v>
+        <v>30.21263374578059</v>
       </c>
       <c r="R20" t="n">
         <v>17.57446358563638</v>
       </c>
       <c r="S20" t="n">
-        <v>6.375389950175139</v>
+        <v>6.375389950175138</v>
       </c>
       <c r="T20" t="n">
         <v>1.224718354663375</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02238206016517874</v>
+        <v>0.02238206016517873</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,40 +32549,40 @@
         <v>5.15391145150855</v>
       </c>
       <c r="J21" t="n">
-        <v>14.14272695247716</v>
+        <v>14.14272695247715</v>
       </c>
       <c r="K21" t="n">
-        <v>24.17217298218985</v>
+        <v>24.17217298218984</v>
       </c>
       <c r="L21" t="n">
-        <v>32.50246960597844</v>
+        <v>32.50246960597843</v>
       </c>
       <c r="M21" t="n">
-        <v>37.92884898772597</v>
+        <v>37.92884898772596</v>
       </c>
       <c r="N21" t="n">
-        <v>38.93271275961853</v>
+        <v>38.93271275961852</v>
       </c>
       <c r="O21" t="n">
-        <v>35.6158260522273</v>
+        <v>35.61582605222729</v>
       </c>
       <c r="P21" t="n">
-        <v>28.58484035360245</v>
+        <v>28.58484035360244</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.10820877512164</v>
+        <v>19.10820877512163</v>
       </c>
       <c r="R21" t="n">
-        <v>9.294110892682173</v>
+        <v>9.294110892682172</v>
       </c>
       <c r="S21" t="n">
-        <v>2.780485986896649</v>
+        <v>2.780485986896648</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6033687419027204</v>
+        <v>0.6033687419027203</v>
       </c>
       <c r="U21" t="n">
-        <v>0.009848238442373029</v>
+        <v>0.009848238442373026</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>1.11578927086768</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7740602331598</v>
+        <v>3.774060233159799</v>
       </c>
       <c r="J22" t="n">
-        <v>8.872692392165584</v>
+        <v>8.872692392165582</v>
       </c>
       <c r="K22" t="n">
         <v>14.58055918373102</v>
@@ -32652,16 +32652,16 @@
         <v>10.50872696724151</v>
       </c>
       <c r="R22" t="n">
-        <v>5.642836128539408</v>
+        <v>5.642836128539407</v>
       </c>
       <c r="S22" t="n">
-        <v>2.187083877559653</v>
+        <v>2.187083877559652</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5362177477584961</v>
+        <v>0.536217747758496</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00684533295010847</v>
+        <v>0.006845332950108468</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2797757520647343</v>
+        <v>0.2797757520647342</v>
       </c>
       <c r="H23" t="n">
-        <v>2.865253420832961</v>
+        <v>2.86525342083296</v>
       </c>
       <c r="I23" t="n">
         <v>10.78605468147568</v>
@@ -32713,34 +32713,34 @@
         <v>35.58852482170447</v>
       </c>
       <c r="L23" t="n">
-        <v>44.1507119939556</v>
+        <v>44.15071199395558</v>
       </c>
       <c r="M23" t="n">
-        <v>49.12617402473681</v>
+        <v>49.1261740247368</v>
       </c>
       <c r="N23" t="n">
-        <v>49.92108688029074</v>
+        <v>49.92108688029073</v>
       </c>
       <c r="O23" t="n">
-        <v>47.13906674569704</v>
+        <v>47.13906674569702</v>
       </c>
       <c r="P23" t="n">
-        <v>40.2321028665989</v>
+        <v>40.23210286659889</v>
       </c>
       <c r="Q23" t="n">
-        <v>30.2126337457806</v>
+        <v>30.21263374578059</v>
       </c>
       <c r="R23" t="n">
         <v>17.57446358563638</v>
       </c>
       <c r="S23" t="n">
-        <v>6.375389950175139</v>
+        <v>6.375389950175138</v>
       </c>
       <c r="T23" t="n">
         <v>1.224718354663375</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02238206016517874</v>
+        <v>0.02238206016517873</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,40 +32786,40 @@
         <v>5.15391145150855</v>
       </c>
       <c r="J24" t="n">
-        <v>14.14272695247716</v>
+        <v>14.14272695247715</v>
       </c>
       <c r="K24" t="n">
-        <v>24.17217298218985</v>
+        <v>24.17217298218984</v>
       </c>
       <c r="L24" t="n">
-        <v>32.50246960597844</v>
+        <v>32.50246960597843</v>
       </c>
       <c r="M24" t="n">
-        <v>37.92884898772597</v>
+        <v>37.92884898772596</v>
       </c>
       <c r="N24" t="n">
-        <v>38.93271275961853</v>
+        <v>38.93271275961852</v>
       </c>
       <c r="O24" t="n">
-        <v>35.6158260522273</v>
+        <v>35.61582605222729</v>
       </c>
       <c r="P24" t="n">
-        <v>28.58484035360245</v>
+        <v>28.58484035360244</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.10820877512164</v>
+        <v>19.10820877512163</v>
       </c>
       <c r="R24" t="n">
-        <v>9.294110892682173</v>
+        <v>9.294110892682172</v>
       </c>
       <c r="S24" t="n">
-        <v>2.780485986896649</v>
+        <v>2.780485986896648</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6033687419027204</v>
+        <v>0.6033687419027203</v>
       </c>
       <c r="U24" t="n">
-        <v>0.009848238442373029</v>
+        <v>0.009848238442373026</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>1.11578927086768</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7740602331598</v>
+        <v>3.774060233159799</v>
       </c>
       <c r="J25" t="n">
-        <v>8.872692392165584</v>
+        <v>8.872692392165582</v>
       </c>
       <c r="K25" t="n">
         <v>14.58055918373102</v>
@@ -32889,16 +32889,16 @@
         <v>10.50872696724151</v>
       </c>
       <c r="R25" t="n">
-        <v>5.642836128539408</v>
+        <v>5.642836128539407</v>
       </c>
       <c r="S25" t="n">
-        <v>2.187083877559653</v>
+        <v>2.187083877559652</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5362177477584961</v>
+        <v>0.536217747758496</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00684533295010847</v>
+        <v>0.006845332950108468</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2797757520647344</v>
+        <v>0.2797757520647342</v>
       </c>
       <c r="H26" t="n">
-        <v>2.865253420832962</v>
+        <v>2.86525342083296</v>
       </c>
       <c r="I26" t="n">
         <v>10.78605468147568</v>
       </c>
       <c r="J26" t="n">
-        <v>23.74561723680428</v>
+        <v>23.74561723680426</v>
       </c>
       <c r="K26" t="n">
-        <v>35.5885248217045</v>
+        <v>35.58852482170447</v>
       </c>
       <c r="L26" t="n">
-        <v>44.15071199395562</v>
+        <v>44.15071199395558</v>
       </c>
       <c r="M26" t="n">
-        <v>49.12617402473684</v>
+        <v>49.1261740247368</v>
       </c>
       <c r="N26" t="n">
-        <v>49.92108688029077</v>
+        <v>49.92108688029073</v>
       </c>
       <c r="O26" t="n">
-        <v>47.13906674569706</v>
+        <v>47.13906674569702</v>
       </c>
       <c r="P26" t="n">
-        <v>40.23210286659893</v>
+        <v>40.23210286659889</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.21263374578061</v>
+        <v>30.21263374578059</v>
       </c>
       <c r="R26" t="n">
-        <v>17.57446358563639</v>
+        <v>17.57446358563638</v>
       </c>
       <c r="S26" t="n">
-        <v>6.375389950175142</v>
+        <v>6.375389950175138</v>
       </c>
       <c r="T26" t="n">
-        <v>1.224718354663376</v>
+        <v>1.224718354663375</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02238206016517875</v>
+        <v>0.02238206016517873</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1496932243240701</v>
+        <v>0.14969322432407</v>
       </c>
       <c r="H27" t="n">
-        <v>1.445721403340361</v>
+        <v>1.44572140334036</v>
       </c>
       <c r="I27" t="n">
-        <v>5.153911451508553</v>
+        <v>5.15391145150855</v>
       </c>
       <c r="J27" t="n">
-        <v>14.14272695247717</v>
+        <v>14.14272695247715</v>
       </c>
       <c r="K27" t="n">
-        <v>24.17217298218986</v>
+        <v>24.17217298218984</v>
       </c>
       <c r="L27" t="n">
-        <v>32.50246960597846</v>
+        <v>32.50246960597843</v>
       </c>
       <c r="M27" t="n">
-        <v>37.92884898772599</v>
+        <v>37.92884898772596</v>
       </c>
       <c r="N27" t="n">
-        <v>38.93271275961856</v>
+        <v>38.93271275961852</v>
       </c>
       <c r="O27" t="n">
-        <v>35.61582605222732</v>
+        <v>35.61582605222729</v>
       </c>
       <c r="P27" t="n">
-        <v>28.58484035360247</v>
+        <v>28.58484035360244</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.10820877512165</v>
+        <v>19.10820877512163</v>
       </c>
       <c r="R27" t="n">
-        <v>9.294110892682179</v>
+        <v>9.294110892682172</v>
       </c>
       <c r="S27" t="n">
-        <v>2.78048598689665</v>
+        <v>2.780485986896648</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6033687419027208</v>
+        <v>0.6033687419027203</v>
       </c>
       <c r="U27" t="n">
-        <v>0.009848238442373035</v>
+        <v>0.009848238442373026</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>0.1254977707519885</v>
       </c>
       <c r="H28" t="n">
-        <v>1.115789270867681</v>
+        <v>1.11578927086768</v>
       </c>
       <c r="I28" t="n">
-        <v>3.774060233159802</v>
+        <v>3.774060233159799</v>
       </c>
       <c r="J28" t="n">
-        <v>8.87269239216559</v>
+        <v>8.872692392165582</v>
       </c>
       <c r="K28" t="n">
-        <v>14.58055918373103</v>
+        <v>14.58055918373102</v>
       </c>
       <c r="L28" t="n">
-        <v>18.65809584434565</v>
+        <v>18.65809584434563</v>
       </c>
       <c r="M28" t="n">
-        <v>19.67234600978671</v>
+        <v>19.6723460097867</v>
       </c>
       <c r="N28" t="n">
-        <v>19.20458159152932</v>
+        <v>19.2045815915293</v>
       </c>
       <c r="O28" t="n">
-        <v>17.73853945138108</v>
+        <v>17.73853945138107</v>
       </c>
       <c r="P28" t="n">
-        <v>15.1783849280405</v>
+        <v>15.17838492804049</v>
       </c>
       <c r="Q28" t="n">
         <v>10.50872696724151</v>
       </c>
       <c r="R28" t="n">
-        <v>5.642836128539411</v>
+        <v>5.642836128539407</v>
       </c>
       <c r="S28" t="n">
-        <v>2.187083877559654</v>
+        <v>2.187083877559652</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5362177477584964</v>
+        <v>0.536217747758496</v>
       </c>
       <c r="U28" t="n">
-        <v>0.006845332950108475</v>
+        <v>0.006845332950108468</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34702,10 +34702,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.58512791403968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>25.62029119463083</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>24.58512791403968</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q3" t="n">
         <v>25.62029119463083</v>
@@ -34869,7 +34869,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403969</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L5" t="n">
         <v>25.62029119463083</v>
@@ -34945,10 +34945,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O5" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M6" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>25.62029119463083</v>
@@ -35103,7 +35103,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35258,16 +35258,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="N9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="N9" t="n">
-        <v>24.58512791403969</v>
-      </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>25.62029119463083</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.79632788219175</v>
+        <v>11.79632788219174</v>
       </c>
       <c r="K11" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="M11" t="n">
-        <v>51.5558996579311</v>
+        <v>17.45457059165789</v>
       </c>
       <c r="N11" t="n">
-        <v>17.45457059165783</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="Q11" t="n">
         <v>20.22193453123579</v>
@@ -35489,13 +35489,13 @@
         <v>13.3961356262193</v>
       </c>
       <c r="K12" t="n">
-        <v>51.5558996579311</v>
+        <v>36.07669737886611</v>
       </c>
       <c r="L12" t="n">
-        <v>51.5558996579311</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>36.07669737886609</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>46.24812110466178</v>
+        <v>46.24812110466177</v>
       </c>
       <c r="M13" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="N13" t="n">
-        <v>51.5558996579311</v>
+        <v>51.55589965793111</v>
       </c>
       <c r="O13" t="n">
-        <v>42.32366736542075</v>
+        <v>42.32366736542074</v>
       </c>
       <c r="P13" t="n">
-        <v>12.45694419293398</v>
+        <v>12.45694419293397</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.79632788219175</v>
+        <v>11.79632788219174</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>51.5558996579311</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>51.5558996579311</v>
       </c>
-      <c r="M14" t="n">
-        <v>17.45457059165783</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>17.45457059165788</v>
       </c>
       <c r="P14" t="n">
         <v>51.5558996579311</v>
@@ -35726,25 +35726,25 @@
         <v>13.3961356262193</v>
       </c>
       <c r="K15" t="n">
-        <v>51.5558996579311</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>51.5558996579311</v>
       </c>
       <c r="M15" t="n">
-        <v>36.07669737886609</v>
+        <v>51.5558996579311</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>51.5558996579311</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>36.07669737886611</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.5558996579311</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>46.24812110466178</v>
+        <v>46.24812110466177</v>
       </c>
       <c r="M16" t="n">
         <v>51.5558996579311</v>
@@ -35817,10 +35817,10 @@
         <v>51.5558996579311</v>
       </c>
       <c r="O16" t="n">
-        <v>42.32366736542075</v>
+        <v>42.32366736542074</v>
       </c>
       <c r="P16" t="n">
-        <v>12.45694419293398</v>
+        <v>12.45694419293397</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.79632788219175</v>
+        <v>11.79632788219174</v>
       </c>
       <c r="K17" t="n">
-        <v>59.25622297162729</v>
+        <v>24.84376973106333</v>
       </c>
       <c r="L17" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="M17" t="n">
-        <v>24.84376973106327</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="Q17" t="n">
         <v>20.22193453123579</v>
@@ -35963,25 +35963,25 @@
         <v>13.3961356262193</v>
       </c>
       <c r="K18" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="L18" t="n">
-        <v>59.25622297162729</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="N18" t="n">
-        <v>43.46589651827151</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>43.46589651827154</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>46.24812110466178</v>
+        <v>46.24812110466177</v>
       </c>
       <c r="M19" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="N19" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="O19" t="n">
-        <v>42.32366736542075</v>
+        <v>42.32366736542074</v>
       </c>
       <c r="P19" t="n">
-        <v>12.45694419293398</v>
+        <v>12.45694419293397</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.79632788219175</v>
+        <v>11.79632788219174</v>
       </c>
       <c r="K20" t="n">
         <v>139.6440863478887</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>13.3961356262193</v>
       </c>
       <c r="K21" t="n">
         <v>150.7959710204094</v>
@@ -36209,7 +36209,7 @@
         <v>316.318924196268</v>
       </c>
       <c r="N21" t="n">
-        <v>307.5186022658332</v>
+        <v>294.1224666396139</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36282,19 +36282,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>46.24812110466178</v>
+        <v>46.24812110466177</v>
       </c>
       <c r="M22" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="N22" t="n">
         <v>63.3367539707579</v>
       </c>
       <c r="O22" t="n">
-        <v>42.32366736542075</v>
+        <v>42.32366736542074</v>
       </c>
       <c r="P22" t="n">
-        <v>12.45694419293398</v>
+        <v>12.45694419293397</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.79632788219175</v>
+        <v>11.79632788219174</v>
       </c>
       <c r="K23" t="n">
         <v>139.6440863478887</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>13.3961356262193</v>
       </c>
       <c r="K24" t="n">
-        <v>150.7959710204094</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>264.7884351295634</v>
+        <v>230.3755268630664</v>
       </c>
       <c r="M24" t="n">
-        <v>316.318924196268</v>
+        <v>316.3189241962679</v>
       </c>
       <c r="N24" t="n">
-        <v>218.314879840884</v>
+        <v>316.3189241962679</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>286.8819008845124</v>
       </c>
       <c r="P24" t="n">
-        <v>213.0732015792094</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.20372242494922</v>
+        <v>89.20372242494921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,19 +36519,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>46.24812110466178</v>
+        <v>46.24812110466177</v>
       </c>
       <c r="M25" t="n">
-        <v>59.25622297162729</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="N25" t="n">
         <v>63.3367539707579</v>
       </c>
       <c r="O25" t="n">
-        <v>42.32366736542075</v>
+        <v>42.32366736542074</v>
       </c>
       <c r="P25" t="n">
-        <v>12.45694419293398</v>
+        <v>12.45694419293397</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.79632788219176</v>
+        <v>11.79632788219174</v>
       </c>
       <c r="K26" t="n">
         <v>139.6440863478887</v>
@@ -36607,13 +36607,13 @@
         <v>257.854947695684</v>
       </c>
       <c r="O26" t="n">
-        <v>197.8410365867557</v>
+        <v>197.8410365867556</v>
       </c>
       <c r="P26" t="n">
         <v>130.797815282812</v>
       </c>
       <c r="Q26" t="n">
-        <v>20.22193453123581</v>
+        <v>20.22193453123579</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>13.3961356262193</v>
       </c>
       <c r="K27" t="n">
-        <v>150.7959710204095</v>
+        <v>150.7959710204094</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>168.7832782676063</v>
       </c>
       <c r="M27" t="n">
-        <v>285.4251365108841</v>
+        <v>316.318924196268</v>
       </c>
       <c r="N27" t="n">
         <v>316.318924196268</v>
@@ -36689,7 +36689,7 @@
         <v>286.8819008845124</v>
       </c>
       <c r="P27" t="n">
-        <v>213.0732015792094</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,19 +36756,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>46.24812110466178</v>
+        <v>46.24812110466177</v>
       </c>
       <c r="M28" t="n">
-        <v>59.2562229716273</v>
+        <v>59.25622297162728</v>
       </c>
       <c r="N28" t="n">
-        <v>63.33675397075791</v>
+        <v>63.3367539707579</v>
       </c>
       <c r="O28" t="n">
-        <v>42.32366736542075</v>
+        <v>42.32366736542074</v>
       </c>
       <c r="P28" t="n">
-        <v>12.45694419293399</v>
+        <v>12.45694419293397</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>130.797815282812</v>
       </c>
       <c r="Q29" t="n">
-        <v>20.22193453123549</v>
+        <v>20.22193453123581</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.7959710204095</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>264.7884351295635</v>
       </c>
       <c r="M30" t="n">
+        <v>171.4326724017302</v>
+      </c>
+      <c r="N30" t="n">
         <v>316.318924196268</v>
-      </c>
-      <c r="N30" t="n">
-        <v>144.5061805355808</v>
       </c>
       <c r="O30" t="n">
         <v>286.8819008845124</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>213.0732015792094</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.20372242494923</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>13.39613562621931</v>
       </c>
       <c r="K33" t="n">
-        <v>150.7959710204095</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>264.7884351295635</v>
@@ -37157,16 +37157,16 @@
         <v>316.318924196268</v>
       </c>
       <c r="N33" t="n">
-        <v>316.318924196268</v>
+        <v>158.0365367755109</v>
       </c>
       <c r="O33" t="n">
-        <v>101.673021597606</v>
+        <v>286.8819008845124</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>213.0732015792094</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.20372242494923</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>11.79632788219176</v>
       </c>
       <c r="K35" t="n">
-        <v>139.6440863478887</v>
+        <v>36.94955586694191</v>
       </c>
       <c r="L35" t="n">
         <v>226.0455115744188</v>
@@ -37318,7 +37318,7 @@
         <v>257.854947695684</v>
       </c>
       <c r="O35" t="n">
-        <v>95.14650610580915</v>
+        <v>197.8410365867557</v>
       </c>
       <c r="P35" t="n">
         <v>130.797815282812</v>
@@ -37388,22 +37388,22 @@
         <v>150.7959710204095</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>264.7884351295635</v>
       </c>
       <c r="M36" t="n">
-        <v>106.0663564420695</v>
+        <v>290.3833157329677</v>
       </c>
       <c r="N36" t="n">
         <v>290.3833157329677</v>
       </c>
       <c r="O36" t="n">
-        <v>286.8819008845124</v>
+        <v>140.0534304682091</v>
       </c>
       <c r="P36" t="n">
-        <v>213.0732015792094</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.20372242494923</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>139.6440863478887</v>
       </c>
       <c r="L38" t="n">
-        <v>123.3509810934723</v>
+        <v>226.0455115744188</v>
       </c>
       <c r="M38" t="n">
         <v>268.2934742902966</v>
@@ -37555,7 +37555,7 @@
         <v>257.854947695684</v>
       </c>
       <c r="O38" t="n">
-        <v>197.8410365867557</v>
+        <v>95.14650610580892</v>
       </c>
       <c r="P38" t="n">
         <v>130.797815282812</v>
@@ -37625,10 +37625,10 @@
         <v>150.7959710204095</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>195.2700788670185</v>
       </c>
       <c r="M39" t="n">
-        <v>195.2700788670187</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>290.3833157329677</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.79632788219176</v>
+        <v>9.409443603563107</v>
       </c>
       <c r="K41" t="n">
         <v>139.6440863478887</v>
@@ -37786,7 +37786,7 @@
         <v>226.0455115744188</v>
       </c>
       <c r="M41" t="n">
-        <v>135.108774728856</v>
+        <v>268.2934742902966</v>
       </c>
       <c r="N41" t="n">
         <v>257.854947695684</v>
@@ -37795,7 +37795,7 @@
         <v>197.8410365867557</v>
       </c>
       <c r="P41" t="n">
-        <v>130.797815282812</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>20.22193453123581</v>
@@ -37865,19 +37865,19 @@
         <v>264.7884351295635</v>
       </c>
       <c r="M42" t="n">
-        <v>282.6829924192715</v>
+        <v>35.76018559015836</v>
       </c>
       <c r="N42" t="n">
         <v>282.6829924192715</v>
       </c>
       <c r="O42" t="n">
-        <v>124.9639080151075</v>
+        <v>282.6829924192715</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>89.20372242494923</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.79632788219176</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>18.18715669524288</v>
+      </c>
+      <c r="O44" t="n">
         <v>25.62029119463079</v>
-      </c>
-      <c r="L44" t="n">
-        <v>25.62029119463079</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>4.363193382803843</v>
       </c>
       <c r="P44" t="n">
         <v>25.62029119463079</v>
@@ -38105,13 +38105,13 @@
         <v>25.62029119463079</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>25.62029119463079</v>
       </c>
       <c r="O45" t="n">
-        <v>25.62029119463079</v>
+        <v>24.58512791403965</v>
       </c>
       <c r="P45" t="n">
-        <v>24.58512791403965</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
